--- a/result/Astronomy_central.xlsx
+++ b/result/Astronomy_central.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S94"/>
+  <dimension ref="A1:V94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,26 +473,29 @@
       <c r="E1" s="1" t="n"/>
       <c r="F1" s="1" t="n"/>
       <c r="G1" s="1" t="n"/>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="n"/>
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Closeness</t>
         </is>
       </c>
-      <c r="I1" s="1" t="n"/>
       <c r="J1" s="1" t="n"/>
       <c r="K1" s="1" t="n"/>
       <c r="L1" s="1" t="n"/>
       <c r="M1" s="1" t="n"/>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="n"/>
+      <c r="O1" s="1" t="n"/>
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Degree</t>
         </is>
       </c>
-      <c r="O1" s="1" t="n"/>
-      <c r="P1" s="1" t="n"/>
       <c r="Q1" s="1" t="n"/>
       <c r="R1" s="1" t="n"/>
       <c r="S1" s="1" t="n"/>
+      <c r="T1" s="1" t="n"/>
+      <c r="U1" s="1" t="n"/>
+      <c r="V1" s="1" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr"/>
@@ -528,62 +531,77 @@
       </c>
       <c r="H2" s="1" t="inlineStr">
         <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
           <t>node1</t>
         </is>
       </c>
-      <c r="I2" s="1" t="inlineStr">
+      <c r="J2" s="1" t="inlineStr">
         <is>
           <t>value1</t>
         </is>
       </c>
-      <c r="J2" s="1" t="inlineStr">
+      <c r="K2" s="1" t="inlineStr">
         <is>
           <t>node2</t>
         </is>
       </c>
-      <c r="K2" s="1" t="inlineStr">
+      <c r="L2" s="1" t="inlineStr">
         <is>
           <t>value2</t>
         </is>
       </c>
-      <c r="L2" s="1" t="inlineStr">
+      <c r="M2" s="1" t="inlineStr">
         <is>
           <t>node3</t>
         </is>
       </c>
-      <c r="M2" s="1" t="inlineStr">
+      <c r="N2" s="1" t="inlineStr">
         <is>
           <t>value3</t>
         </is>
       </c>
-      <c r="N2" s="1" t="inlineStr">
+      <c r="O2" s="1" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="P2" s="1" t="inlineStr">
         <is>
           <t>node1</t>
         </is>
       </c>
-      <c r="O2" s="1" t="inlineStr">
+      <c r="Q2" s="1" t="inlineStr">
         <is>
           <t>value1</t>
         </is>
       </c>
-      <c r="P2" s="1" t="inlineStr">
+      <c r="R2" s="1" t="inlineStr">
         <is>
           <t>node2</t>
         </is>
       </c>
-      <c r="Q2" s="1" t="inlineStr">
+      <c r="S2" s="1" t="inlineStr">
         <is>
           <t>value2</t>
         </is>
       </c>
-      <c r="R2" s="1" t="inlineStr">
+      <c r="T2" s="1" t="inlineStr">
         <is>
           <t>node3</t>
         </is>
       </c>
-      <c r="S2" s="1" t="inlineStr">
+      <c r="U2" s="1" t="inlineStr">
         <is>
           <t>value3</t>
+        </is>
+      </c>
+      <c r="V2" s="1" t="inlineStr">
+        <is>
+          <t>mean</t>
         </is>
       </c>
     </row>
@@ -617,41 +635,39 @@
       <c r="G4" t="n">
         <v>0</v>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H4" t="n">
+        <v>0.002930402930402931</v>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>수성</t>
         </is>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>0.09523809523809523</v>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>금성</t>
         </is>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>0.09523809523809523</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>지구</t>
         </is>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>0.09523809523809523</v>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="n">
+        <v>0.0746031746031746</v>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>지구형행성</t>
-        </is>
-      </c>
-      <c r="O4" t="n">
-        <v>0.3571428571428571</v>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>목성형행성</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -659,11 +675,22 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
+          <t>목성형행성</t>
+        </is>
+      </c>
+      <c r="S4" t="n">
+        <v>0.3571428571428571</v>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
           <t>케플러법칙</t>
         </is>
       </c>
-      <c r="S4" t="n">
+      <c r="U4" t="n">
         <v>0.2142857142857143</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.1238095238095238</v>
       </c>
     </row>
     <row r="5">
@@ -696,54 +723,63 @@
       <c r="G5" t="n">
         <v>0.01231527093596059</v>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="H5" t="n">
+        <v>0.003858784893267652</v>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>케플러3법칙</t>
         </is>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>0.1576354679802956</v>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>케플러2법칙</t>
         </is>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>0.1551724137931035</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>케플러1법칙</t>
         </is>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>0.1379310344827586</v>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="n">
+        <v>0.07735126942023493</v>
+      </c>
+      <c r="P5" t="inlineStr">
         <is>
           <t>케플러2법칙</t>
         </is>
       </c>
-      <c r="O5" t="n">
+      <c r="Q5" t="n">
         <v>0.2758620689655172</v>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="R5" t="inlineStr">
         <is>
           <t>태양계</t>
-        </is>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.2068965517241379</v>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>케플러3법칙</t>
         </is>
       </c>
       <c r="S5" t="n">
         <v>0.2068965517241379</v>
       </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>케플러3법칙</t>
+        </is>
+      </c>
+      <c r="U5" t="n">
+        <v>0.2068965517241379</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.1126436781609195</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -775,54 +811,63 @@
       <c r="G6" t="n">
         <v>0.02852852852852853</v>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H6" t="n">
+        <v>0.007685316895843211</v>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>주계열성</t>
         </is>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>0.1522522522522523</v>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>성운</t>
         </is>
       </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>0.1427364864864865</v>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>태양2배이상</t>
         </is>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>0.120199146514936</v>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="n">
+        <v>0.05767324383148483</v>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>주계열성</t>
         </is>
       </c>
-      <c r="O6" t="n">
+      <c r="Q6" t="n">
         <v>0.2162162162162162</v>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="R6" t="inlineStr">
         <is>
           <t>법칙-이론</t>
-        </is>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.1621621621621622</v>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>성운</t>
         </is>
       </c>
       <c r="S6" t="n">
         <v>0.1621621621621622</v>
       </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>성운</t>
+        </is>
+      </c>
+      <c r="U6" t="n">
+        <v>0.1621621621621622</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.06827880512091036</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -854,53 +899,62 @@
       <c r="G7" t="n">
         <v>0.075</v>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="H7" t="n">
+        <v>0.03455882352941176</v>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>태양계</t>
         </is>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>0.2604166666666667</v>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>지구형행성</t>
         </is>
       </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
         <v>0.2410714285714285</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>목성형행성</t>
         </is>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
         <v>0.2410714285714285</v>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="n">
+        <v>0.1668585031387957</v>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>태양계</t>
         </is>
       </c>
-      <c r="O7" t="n">
+      <c r="Q7" t="n">
         <v>0.5625</v>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="R7" t="inlineStr">
         <is>
           <t>태양계천체</t>
         </is>
       </c>
-      <c r="Q7" t="n">
+      <c r="S7" t="n">
         <v>0.3125</v>
       </c>
-      <c r="R7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>천체</t>
         </is>
       </c>
-      <c r="S7" t="n">
+      <c r="U7" t="n">
         <v>0.25</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.1838235294117647</v>
       </c>
     </row>
     <row r="8">
@@ -933,54 +987,63 @@
       <c r="G8" t="n">
         <v>0.03846153846153846</v>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>행성</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="H8" t="n">
+        <v>0.01282051282051282</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>행성</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
         <v>0.1538461538461539</v>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>기타천체</t>
         </is>
       </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
         <v>0.1538461538461539</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>태양계천체</t>
         </is>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
         <v>0.1384615384615385</v>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="n">
+        <v>0.1087301587301587</v>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>천체</t>
         </is>
       </c>
-      <c r="O8" t="n">
+      <c r="Q8" t="n">
         <v>0.3846153846153846</v>
       </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>행성</t>
-        </is>
-      </c>
-      <c r="Q8" t="n">
-        <v>0.3076923076923077</v>
-      </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>케플러법칙</t>
+          <t>행성</t>
         </is>
       </c>
       <c r="S8" t="n">
         <v>0.3076923076923077</v>
       </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>케플러법칙</t>
+        </is>
+      </c>
+      <c r="U8" t="n">
+        <v>0.3076923076923077</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.1648351648351649</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1012,53 +1075,62 @@
       <c r="G9" t="n">
         <v>0.008602150537634409</v>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="H9" t="n">
+        <v>0.00174731182795699</v>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>케플러1법칙</t>
         </is>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>0.05161290322580645</v>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>케플러2법칙</t>
         </is>
       </c>
-      <c r="K9" t="n">
+      <c r="L9" t="n">
         <v>0.05161290322580645</v>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>케플러3법칙</t>
         </is>
       </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
         <v>0.05161290322580645</v>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="n">
+        <v>0.04146505376344085</v>
+      </c>
+      <c r="P9" t="inlineStr">
         <is>
           <t>태양계천체</t>
         </is>
       </c>
-      <c r="O9" t="n">
+      <c r="Q9" t="n">
         <v>0.3548387096774194</v>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="R9" t="inlineStr">
         <is>
           <t>태양계</t>
         </is>
       </c>
-      <c r="Q9" t="n">
+      <c r="S9" t="n">
         <v>0.1935483870967742</v>
       </c>
-      <c r="R9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>은하</t>
         </is>
       </c>
-      <c r="S9" t="n">
+      <c r="U9" t="n">
         <v>0.1290322580645161</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.06249999999999999</v>
       </c>
     </row>
     <row r="10">
@@ -1091,41 +1163,39 @@
       <c r="G10" t="n">
         <v>0.02564102564102564</v>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="H10" t="n">
+        <v>0.005901505901505902</v>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>토성</t>
         </is>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>0.1333333333333333</v>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>금성</t>
         </is>
       </c>
-      <c r="K10" t="n">
+      <c r="L10" t="n">
         <v>0.1157407407407407</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>목성</t>
         </is>
       </c>
-      <c r="M10" t="n">
+      <c r="N10" t="n">
         <v>0.1157407407407407</v>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="n">
+        <v>0.07166186987615557</v>
+      </c>
+      <c r="P10" t="inlineStr">
         <is>
           <t>지구형행성</t>
-        </is>
-      </c>
-      <c r="O10" t="n">
-        <v>0.1851851851851852</v>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>목성형행성</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1133,12 +1203,23 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>금성</t>
+          <t>목성형행성</t>
         </is>
       </c>
       <c r="S10" t="n">
         <v>0.1851851851851852</v>
       </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>금성</t>
+        </is>
+      </c>
+      <c r="U10" t="n">
+        <v>0.1851851851851852</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.1005291005291005</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1170,54 +1251,63 @@
       <c r="G11" t="n">
         <v>0.1537634408602151</v>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="H11" t="n">
+        <v>0.03195564516129033</v>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>지구형행성</t>
         </is>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>0.1861042183622829</v>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>목성형행성</t>
         </is>
       </c>
-      <c r="K11" t="n">
+      <c r="L11" t="n">
         <v>0.1861042183622829</v>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>수성</t>
         </is>
       </c>
-      <c r="M11" t="n">
+      <c r="N11" t="n">
         <v>0.1728110599078341</v>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>행성</t>
-        </is>
-      </c>
       <c r="O11" t="n">
+        <v>0.1148241391536481</v>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>행성</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
         <v>0.3548387096774194</v>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="R11" t="inlineStr">
         <is>
           <t>지구형행성</t>
-        </is>
-      </c>
-      <c r="Q11" t="n">
-        <v>0.2903225806451613</v>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>목성형행성</t>
         </is>
       </c>
       <c r="S11" t="n">
         <v>0.2903225806451613</v>
       </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>목성형행성</t>
+        </is>
+      </c>
+      <c r="U11" t="n">
+        <v>0.2903225806451613</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.1008064516129032</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1249,53 +1339,62 @@
       <c r="G12" t="n">
         <v>0.1038961038961039</v>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="H12" t="n">
+        <v>0.01882175795219274</v>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t>천체</t>
         </is>
       </c>
-      <c r="I12" t="n">
+      <c r="J12" t="n">
         <v>0.2272727272727273</v>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>케플러법칙</t>
         </is>
       </c>
-      <c r="K12" t="n">
+      <c r="L12" t="n">
         <v>0.1818181818181818</v>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>위성</t>
         </is>
       </c>
-      <c r="M12" t="n">
+      <c r="N12" t="n">
         <v>0.1623376623376623</v>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="O12" t="n">
+        <v>0.1210308137185608</v>
+      </c>
+      <c r="P12" t="inlineStr">
         <is>
           <t>천체</t>
         </is>
       </c>
-      <c r="O12" t="n">
+      <c r="Q12" t="n">
         <v>0.4545454545454546</v>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="R12" t="inlineStr">
         <is>
           <t>태양계천체</t>
         </is>
       </c>
-      <c r="Q12" t="n">
+      <c r="S12" t="n">
         <v>0.3636363636363636</v>
       </c>
-      <c r="R12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>케플러법칙</t>
         </is>
       </c>
-      <c r="S12" t="n">
+      <c r="U12" t="n">
         <v>0.3181818181818182</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.1304347826086956</v>
       </c>
     </row>
     <row r="13">
@@ -1328,41 +1427,39 @@
       <c r="G13" t="n">
         <v>0.05230769230769231</v>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="H13" t="n">
+        <v>0.01173789173789174</v>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>지구형행성</t>
         </is>
       </c>
-      <c r="I13" t="n">
+      <c r="J13" t="n">
         <v>0.1831501831501831</v>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>목성형행성</t>
         </is>
       </c>
-      <c r="K13" t="n">
+      <c r="L13" t="n">
         <v>0.1831501831501831</v>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>토성</t>
         </is>
       </c>
-      <c r="M13" t="n">
+      <c r="N13" t="n">
         <v>0.1373626373626374</v>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="O13" t="n">
+        <v>0.08920636997039971</v>
+      </c>
+      <c r="P13" t="inlineStr">
         <is>
           <t>지구형행성</t>
-        </is>
-      </c>
-      <c r="O13" t="n">
-        <v>0.3461538461538461</v>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>목성형행성</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1370,11 +1467,22 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
+          <t>목성형행성</t>
+        </is>
+      </c>
+      <c r="S13" t="n">
+        <v>0.3461538461538461</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
           <t>천체</t>
         </is>
       </c>
-      <c r="S13" t="n">
+      <c r="U13" t="n">
         <v>0.2307692307692308</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.1282051282051282</v>
       </c>
     </row>
     <row r="14">
@@ -1407,41 +1515,39 @@
       <c r="G14" t="n">
         <v>0.01013513513513514</v>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="H14" t="n">
+        <v>0.003003003003003003</v>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>금성</t>
         </is>
       </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
         <v>0.1216216216216216</v>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>수성</t>
         </is>
       </c>
-      <c r="K14" t="n">
+      <c r="L14" t="n">
         <v>0.1094594594594595</v>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>목성</t>
         </is>
       </c>
-      <c r="M14" t="n">
+      <c r="N14" t="n">
         <v>0.1018711018711019</v>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="O14" t="n">
+        <v>0.05690306611359242</v>
+      </c>
+      <c r="P14" t="inlineStr">
         <is>
           <t>천체분류</t>
-        </is>
-      </c>
-      <c r="O14" t="n">
-        <v>0.1621621621621622</v>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>행성</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1449,12 +1555,23 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>외행성</t>
+          <t>행성</t>
         </is>
       </c>
       <c r="S14" t="n">
         <v>0.1621621621621622</v>
       </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>외행성</t>
+        </is>
+      </c>
+      <c r="U14" t="n">
+        <v>0.1621621621621622</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.07823613086770985</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1486,53 +1603,62 @@
       <c r="G15" t="n">
         <v>0.3884731620580678</v>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="H15" t="n">
+        <v>0.1029672633446218</v>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>고온</t>
         </is>
       </c>
-      <c r="I15" t="n">
+      <c r="J15" t="n">
         <v>0.2406623026569118</v>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>지구형행성</t>
         </is>
       </c>
-      <c r="K15" t="n">
+      <c r="L15" t="n">
         <v>0.237034227742486</v>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>이산화탄소</t>
         </is>
       </c>
-      <c r="M15" t="n">
+      <c r="N15" t="n">
         <v>0.2183787561146052</v>
       </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>행성</t>
-        </is>
-      </c>
       <c r="O15" t="n">
+        <v>0.153710298869493</v>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>행성</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
         <v>0.2452830188679245</v>
       </c>
-      <c r="P15" t="inlineStr">
+      <c r="R15" t="inlineStr">
         <is>
           <t>지구형행성</t>
         </is>
       </c>
-      <c r="Q15" t="n">
+      <c r="S15" t="n">
         <v>0.1886792452830189</v>
       </c>
-      <c r="R15" t="inlineStr">
+      <c r="T15" t="inlineStr">
         <is>
           <t>수성</t>
         </is>
       </c>
-      <c r="S15" t="n">
+      <c r="U15" t="n">
         <v>0.1509433962264151</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.08525506638714185</v>
       </c>
     </row>
     <row r="16">
@@ -1565,53 +1691,62 @@
       <c r="G16" t="n">
         <v>0.002645502645502645</v>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="H16" t="n">
+        <v>0.0006841817186644773</v>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>달</t>
         </is>
       </c>
-      <c r="I16" t="n">
+      <c r="J16" t="n">
         <v>0.04761904761904762</v>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>유로파</t>
         </is>
       </c>
-      <c r="K16" t="n">
+      <c r="L16" t="n">
         <v>0.04761904761904762</v>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>이오</t>
         </is>
       </c>
-      <c r="M16" t="n">
+      <c r="N16" t="n">
         <v>0.04761904761904762</v>
       </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>행성</t>
-        </is>
-      </c>
       <c r="O16" t="n">
+        <v>0.03817733990147783</v>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>행성</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
         <v>0.3214285714285714</v>
       </c>
-      <c r="P16" t="inlineStr">
+      <c r="R16" t="inlineStr">
         <is>
           <t>태양계천체</t>
         </is>
       </c>
-      <c r="Q16" t="n">
+      <c r="S16" t="n">
         <v>0.1785714285714285</v>
       </c>
-      <c r="R16" t="inlineStr">
+      <c r="T16" t="inlineStr">
         <is>
           <t>위성</t>
         </is>
       </c>
-      <c r="S16" t="n">
+      <c r="U16" t="n">
         <v>0.1428571428571428</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.06403940886699508</v>
       </c>
     </row>
     <row r="17">
@@ -1644,54 +1779,63 @@
       <c r="G17" t="n">
         <v>0.01731601731601732</v>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="H17" t="n">
+        <v>0.004611330698287219</v>
+      </c>
+      <c r="I17" t="inlineStr">
         <is>
           <t>지구</t>
         </is>
       </c>
-      <c r="I17" t="n">
+      <c r="J17" t="n">
         <v>0.1038961038961039</v>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>화성</t>
         </is>
       </c>
-      <c r="K17" t="n">
+      <c r="L17" t="n">
         <v>0.1038961038961039</v>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>목성</t>
         </is>
       </c>
-      <c r="M17" t="n">
+      <c r="N17" t="n">
         <v>0.1038961038961039</v>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="O17" t="n">
+        <v>0.06788067005458311</v>
+      </c>
+      <c r="P17" t="inlineStr">
         <is>
           <t>천체</t>
         </is>
       </c>
-      <c r="O17" t="n">
+      <c r="Q17" t="n">
         <v>0.2727272727272727</v>
       </c>
-      <c r="P17" t="inlineStr">
+      <c r="R17" t="inlineStr">
         <is>
           <t>지구형행성</t>
-        </is>
-      </c>
-      <c r="Q17" t="n">
-        <v>0.2272727272727273</v>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>목성형행성</t>
         </is>
       </c>
       <c r="S17" t="n">
         <v>0.2272727272727273</v>
       </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>목성형행성</t>
+        </is>
+      </c>
+      <c r="U17" t="n">
+        <v>0.2272727272727273</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.1106719367588933</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1723,54 +1867,63 @@
       <c r="G18" t="n">
         <v>0.02049910873440285</v>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="H18" t="n">
+        <v>0.00516934046345811</v>
+      </c>
+      <c r="I18" t="inlineStr">
         <is>
           <t>내행성</t>
         </is>
       </c>
-      <c r="I18" t="n">
+      <c r="J18" t="n">
         <v>0.196078431372549</v>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>외행성</t>
         </is>
       </c>
-      <c r="K18" t="n">
+      <c r="L18" t="n">
         <v>0.1512605042016807</v>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>지구</t>
         </is>
       </c>
-      <c r="M18" t="n">
+      <c r="N18" t="n">
         <v>0.1470588235294118</v>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="O18" t="n">
+        <v>0.07584301836823314</v>
+      </c>
+      <c r="P18" t="inlineStr">
         <is>
           <t>천체</t>
         </is>
       </c>
-      <c r="O18" t="n">
+      <c r="Q18" t="n">
         <v>0.2941176470588235</v>
       </c>
-      <c r="P18" t="inlineStr">
+      <c r="R18" t="inlineStr">
         <is>
           <t>내행성</t>
-        </is>
-      </c>
-      <c r="Q18" t="n">
-        <v>0.2647058823529412</v>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>외행성</t>
         </is>
       </c>
       <c r="S18" t="n">
         <v>0.2647058823529412</v>
       </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>외행성</t>
+        </is>
+      </c>
+      <c r="U18" t="n">
+        <v>0.2647058823529412</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0.08907563025210083</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1802,53 +1955,62 @@
       <c r="G19" t="n">
         <v>0.004615384615384615</v>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="H19" t="n">
+        <v>0.001196581196581197</v>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>달</t>
         </is>
       </c>
-      <c r="I19" t="n">
+      <c r="J19" t="n">
         <v>0.1025641025641026</v>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>타이탄</t>
         </is>
       </c>
-      <c r="K19" t="n">
+      <c r="L19" t="n">
         <v>0.1025641025641026</v>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="M19" t="inlineStr">
         <is>
           <t>만유인력</t>
         </is>
       </c>
-      <c r="M19" t="n">
+      <c r="N19" t="n">
         <v>0.08653846153846154</v>
       </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>행성</t>
-        </is>
-      </c>
       <c r="O19" t="n">
+        <v>0.05341880341880342</v>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>행성</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
         <v>0.3461538461538461</v>
       </c>
-      <c r="P19" t="inlineStr">
+      <c r="R19" t="inlineStr">
         <is>
           <t>천체</t>
         </is>
       </c>
-      <c r="Q19" t="n">
+      <c r="S19" t="n">
         <v>0.2307692307692308</v>
       </c>
-      <c r="R19" t="inlineStr">
+      <c r="T19" t="inlineStr">
         <is>
           <t>만유인력</t>
         </is>
       </c>
-      <c r="S19" t="n">
+      <c r="U19" t="n">
         <v>0.1538461538461539</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.08831908831908832</v>
       </c>
     </row>
     <row r="20">
@@ -1881,53 +2043,62 @@
       <c r="G20" t="n">
         <v>0.006896551724137931</v>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="H20" t="n">
+        <v>0.001297738227660363</v>
+      </c>
+      <c r="I20" t="inlineStr">
         <is>
           <t>허블우주망원경</t>
         </is>
       </c>
-      <c r="I20" t="n">
+      <c r="J20" t="n">
         <v>0.09259259259259259</v>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>GPS</t>
         </is>
       </c>
-      <c r="K20" t="n">
+      <c r="L20" t="n">
         <v>0.07575757575757575</v>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="M20" t="inlineStr">
         <is>
           <t>케플러1법칙</t>
         </is>
       </c>
-      <c r="M20" t="n">
+      <c r="N20" t="n">
         <v>0.06666666666666667</v>
       </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>행성</t>
-        </is>
-      </c>
       <c r="O20" t="n">
+        <v>0.04378190507222766</v>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>행성</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
         <v>0.3</v>
       </c>
-      <c r="P20" t="inlineStr">
+      <c r="R20" t="inlineStr">
         <is>
           <t>천체</t>
         </is>
       </c>
-      <c r="Q20" t="n">
+      <c r="S20" t="n">
         <v>0.2666666666666667</v>
       </c>
-      <c r="R20" t="inlineStr">
+      <c r="T20" t="inlineStr">
         <is>
           <t>GPS</t>
         </is>
       </c>
-      <c r="S20" t="n">
+      <c r="U20" t="n">
         <v>0.1333333333333333</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0.07311827956989245</v>
       </c>
     </row>
     <row r="21">
@@ -1960,41 +2131,39 @@
       <c r="G21" t="n">
         <v>0.01731601731601732</v>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="H21" t="n">
+        <v>0.00282326369282891</v>
+      </c>
+      <c r="I21" t="inlineStr">
         <is>
           <t>천왕성</t>
         </is>
       </c>
-      <c r="I21" t="n">
+      <c r="J21" t="n">
         <v>0.1038961038961039</v>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>해왕성</t>
         </is>
       </c>
-      <c r="K21" t="n">
+      <c r="L21" t="n">
         <v>0.1038961038961039</v>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="M21" t="inlineStr">
         <is>
           <t>수성</t>
         </is>
       </c>
-      <c r="M21" t="n">
+      <c r="N21" t="n">
         <v>0.06818181818181818</v>
       </c>
-      <c r="N21" t="inlineStr">
+      <c r="O21" t="n">
+        <v>0.05547713156408807</v>
+      </c>
+      <c r="P21" t="inlineStr">
         <is>
           <t>태양계</t>
-        </is>
-      </c>
-      <c r="O21" t="n">
-        <v>0.2727272727272727</v>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>가스형행성</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2002,11 +2171,22 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
+          <t>가스형행성</t>
+        </is>
+      </c>
+      <c r="S21" t="n">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
           <t>지구형행성</t>
         </is>
       </c>
-      <c r="S21" t="n">
+      <c r="U21" t="n">
         <v>0.2272727272727273</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.09090909090909088</v>
       </c>
     </row>
     <row r="22">
@@ -2039,53 +2219,62 @@
       <c r="G22" t="n">
         <v>0.05443974630021142</v>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="H22" t="n">
+        <v>0.009736903922950435</v>
+      </c>
+      <c r="I22" t="inlineStr">
         <is>
           <t>케플러법칙</t>
         </is>
       </c>
-      <c r="I22" t="n">
+      <c r="J22" t="n">
         <v>0.1168831168831169</v>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>금성</t>
         </is>
       </c>
-      <c r="K22" t="n">
+      <c r="L22" t="n">
         <v>0.1162190082644628</v>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="M22" t="inlineStr">
         <is>
           <t>지구</t>
         </is>
       </c>
-      <c r="M22" t="n">
+      <c r="N22" t="n">
         <v>0.1162190082644628</v>
       </c>
-      <c r="N22" t="inlineStr">
+      <c r="O22" t="n">
+        <v>0.06617956811768477</v>
+      </c>
+      <c r="P22" t="inlineStr">
         <is>
           <t>케플러법칙</t>
         </is>
       </c>
-      <c r="O22" t="n">
+      <c r="Q22" t="n">
         <v>0.2272727272727273</v>
       </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>행성</t>
-        </is>
-      </c>
-      <c r="Q22" t="n">
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>행성</t>
+        </is>
+      </c>
+      <c r="S22" t="n">
         <v>0.2045454545454546</v>
       </c>
-      <c r="R22" t="inlineStr">
+      <c r="T22" t="inlineStr">
         <is>
           <t>지구</t>
         </is>
       </c>
-      <c r="S22" t="n">
+      <c r="U22" t="n">
         <v>0.1590909090909091</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.06666666666666668</v>
       </c>
     </row>
     <row r="23">
@@ -2118,53 +2307,62 @@
       <c r="G23" t="n">
         <v>0.004926108374384237</v>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="H23" t="n">
+        <v>0.001642036124794745</v>
+      </c>
+      <c r="I23" t="inlineStr">
         <is>
           <t>코마</t>
         </is>
       </c>
-      <c r="I23" t="n">
+      <c r="J23" t="n">
         <v>0.07758620689655173</v>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>태양</t>
         </is>
       </c>
-      <c r="K23" t="n">
+      <c r="L23" t="n">
         <v>0.06896551724137931</v>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="M23" t="inlineStr">
         <is>
           <t>가스구름</t>
         </is>
       </c>
-      <c r="M23" t="n">
+      <c r="N23" t="n">
         <v>0.05172413793103448</v>
       </c>
-      <c r="N23" t="inlineStr">
+      <c r="O23" t="n">
+        <v>0.04454022988505747</v>
+      </c>
+      <c r="P23" t="inlineStr">
         <is>
           <t>태양계</t>
         </is>
       </c>
-      <c r="O23" t="n">
+      <c r="Q23" t="n">
         <v>0.2068965517241379</v>
       </c>
-      <c r="P23" t="inlineStr">
+      <c r="R23" t="inlineStr">
         <is>
           <t>지구형행성</t>
         </is>
       </c>
-      <c r="Q23" t="n">
+      <c r="S23" t="n">
         <v>0.1724137931034483</v>
       </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>행성</t>
-        </is>
-      </c>
-      <c r="S23" t="n">
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>행성</t>
+        </is>
+      </c>
+      <c r="U23" t="n">
         <v>0.1379310344827586</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0.0689655172413793</v>
       </c>
     </row>
     <row r="24">
@@ -2197,41 +2395,39 @@
       <c r="G24" t="n">
         <v>0.01333333333333333</v>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="H24" t="n">
+        <v>0.001923076923076923</v>
+      </c>
+      <c r="I24" t="inlineStr">
         <is>
           <t>혜성</t>
         </is>
       </c>
-      <c r="I24" t="n">
+      <c r="J24" t="n">
         <v>0.12</v>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>오르트구름</t>
         </is>
       </c>
-      <c r="K24" t="n">
+      <c r="L24" t="n">
         <v>0.07199999999999999</v>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="M24" t="inlineStr">
         <is>
           <t>카이퍼벨트</t>
         </is>
       </c>
-      <c r="M24" t="n">
+      <c r="N24" t="n">
         <v>0.07199999999999999</v>
       </c>
-      <c r="N24" t="inlineStr">
+      <c r="O24" t="n">
+        <v>0.04810256410256411</v>
+      </c>
+      <c r="P24" t="inlineStr">
         <is>
           <t>천체</t>
-        </is>
-      </c>
-      <c r="O24" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>혜성</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2239,12 +2435,23 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>지구형행성</t>
+          <t>혜성</t>
         </is>
       </c>
       <c r="S24" t="n">
         <v>0.2</v>
       </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>지구형행성</t>
+        </is>
+      </c>
+      <c r="U24" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0.07692307692307693</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -2276,41 +2483,39 @@
       <c r="G25" t="n">
         <v>0.003393665158371041</v>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="H25" t="n">
+        <v>0.0008537522410996328</v>
+      </c>
+      <c r="I25" t="inlineStr">
         <is>
           <t>금성</t>
         </is>
       </c>
-      <c r="I25" t="n">
+      <c r="J25" t="n">
         <v>0.0989010989010989</v>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>지구</t>
         </is>
       </c>
-      <c r="K25" t="n">
+      <c r="L25" t="n">
         <v>0.07852564102564102</v>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="M25" t="inlineStr">
         <is>
           <t>화성</t>
         </is>
       </c>
-      <c r="M25" t="n">
+      <c r="N25" t="n">
         <v>0.07852564102564102</v>
       </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>행성</t>
-        </is>
-      </c>
       <c r="O25" t="n">
-        <v>0.1730769230769231</v>
+        <v>0.03579549381436173</v>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>금성</t>
+          <t>행성</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -2318,11 +2523,22 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
+          <t>금성</t>
+        </is>
+      </c>
+      <c r="S25" t="n">
+        <v>0.1730769230769231</v>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
           <t>천체</t>
         </is>
       </c>
-      <c r="S25" t="n">
+      <c r="U25" t="n">
         <v>0.1538461538461539</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0.05007256894049346</v>
       </c>
     </row>
     <row r="26">
@@ -2355,41 +2571,39 @@
       <c r="G26" t="n">
         <v>0.02699055330634278</v>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="H26" t="n">
+        <v>0.004352226720647773</v>
+      </c>
+      <c r="I26" t="inlineStr">
         <is>
           <t>암석형</t>
         </is>
       </c>
-      <c r="I26" t="n">
+      <c r="J26" t="n">
         <v>0.1435897435897436</v>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>지구</t>
         </is>
       </c>
-      <c r="K26" t="n">
+      <c r="L26" t="n">
         <v>0.1221001221001221</v>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="M26" t="inlineStr">
         <is>
           <t>수소</t>
         </is>
       </c>
-      <c r="M26" t="n">
+      <c r="N26" t="n">
         <v>0.1171171171171171</v>
       </c>
-      <c r="N26" t="inlineStr">
+      <c r="O26" t="n">
+        <v>0.05724201021076021</v>
+      </c>
+      <c r="P26" t="inlineStr">
         <is>
           <t>지구</t>
-        </is>
-      </c>
-      <c r="O26" t="n">
-        <v>0.2051282051282051</v>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>목성</t>
         </is>
       </c>
       <c r="Q26" t="n">
@@ -2397,11 +2611,22 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
+          <t>목성</t>
+        </is>
+      </c>
+      <c r="S26" t="n">
+        <v>0.2051282051282051</v>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
           <t>항성</t>
         </is>
       </c>
-      <c r="S26" t="n">
+      <c r="U26" t="n">
         <v>0.1538461538461539</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0.0782051282051282</v>
       </c>
     </row>
     <row r="27">
@@ -2434,53 +2659,62 @@
       <c r="G27" t="n">
         <v>0.006302521008403362</v>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="H27" t="n">
+        <v>0.001283846872082166</v>
+      </c>
+      <c r="I27" t="inlineStr">
         <is>
           <t>물</t>
         </is>
       </c>
-      <c r="I27" t="n">
+      <c r="J27" t="n">
         <v>0.07936507936507936</v>
       </c>
-      <c r="J27" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>고리</t>
         </is>
       </c>
-      <c r="K27" t="n">
+      <c r="L27" t="n">
         <v>0.07936507936507936</v>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="M27" t="inlineStr">
         <is>
           <t>수성</t>
         </is>
       </c>
-      <c r="M27" t="n">
+      <c r="N27" t="n">
         <v>0.06428571428571428</v>
       </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>행성</t>
-        </is>
-      </c>
       <c r="O27" t="n">
+        <v>0.04514991181657848</v>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>행성</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
         <v>0.2571428571428571</v>
       </c>
-      <c r="P27" t="inlineStr">
+      <c r="R27" t="inlineStr">
         <is>
           <t>태양계천체</t>
         </is>
       </c>
-      <c r="Q27" t="n">
+      <c r="S27" t="n">
         <v>0.2285714285714286</v>
       </c>
-      <c r="R27" t="inlineStr">
+      <c r="T27" t="inlineStr">
         <is>
           <t>천체</t>
         </is>
       </c>
-      <c r="S27" t="n">
+      <c r="U27" t="n">
         <v>0.1428571428571428</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0.06825396825396825</v>
       </c>
     </row>
     <row r="28">
@@ -2513,54 +2747,63 @@
       <c r="G28" t="n">
         <v>0.03463203463203463</v>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>행성</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="H28" t="n">
+        <v>0.01063429324298889</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>행성</t>
+        </is>
+      </c>
+      <c r="J28" t="n">
         <v>0.1022727272727273</v>
       </c>
-      <c r="J28" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>내행성</t>
         </is>
       </c>
-      <c r="K28" t="n">
+      <c r="L28" t="n">
         <v>0.09090909090909091</v>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="M28" t="inlineStr">
         <is>
           <t>외행성</t>
         </is>
       </c>
-      <c r="M28" t="n">
+      <c r="N28" t="n">
         <v>0.09090909090909091</v>
       </c>
-      <c r="N28" t="inlineStr">
+      <c r="O28" t="n">
+        <v>0.07128053106313978</v>
+      </c>
+      <c r="P28" t="inlineStr">
         <is>
           <t>천체</t>
         </is>
       </c>
-      <c r="O28" t="n">
+      <c r="Q28" t="n">
         <v>0.2727272727272727</v>
       </c>
-      <c r="P28" t="inlineStr">
+      <c r="R28" t="inlineStr">
         <is>
           <t>내행성</t>
-        </is>
-      </c>
-      <c r="Q28" t="n">
-        <v>0.2272727272727273</v>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>외행성</t>
         </is>
       </c>
       <c r="S28" t="n">
         <v>0.2272727272727273</v>
       </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>외행성</t>
+        </is>
+      </c>
+      <c r="U28" t="n">
+        <v>0.2272727272727273</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0.09090909090909091</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -2592,54 +2835,63 @@
       <c r="G29" t="n">
         <v>0.01058201058201058</v>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="H29" t="n">
+        <v>0.001413975551906586</v>
+      </c>
+      <c r="I29" t="inlineStr">
         <is>
           <t>수성</t>
         </is>
       </c>
-      <c r="I29" t="n">
+      <c r="J29" t="n">
         <v>0.05357142857142857</v>
       </c>
-      <c r="J29" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>금성</t>
         </is>
       </c>
-      <c r="K29" t="n">
+      <c r="L29" t="n">
         <v>0.05357142857142857</v>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="M29" t="inlineStr">
         <is>
           <t>지구</t>
         </is>
       </c>
-      <c r="M29" t="n">
+      <c r="N29" t="n">
         <v>0.05357142857142857</v>
       </c>
-      <c r="N29" t="inlineStr">
+      <c r="O29" t="n">
+        <v>0.03981937602627258</v>
+      </c>
+      <c r="P29" t="inlineStr">
         <is>
           <t>태양계천체</t>
         </is>
       </c>
-      <c r="O29" t="n">
+      <c r="Q29" t="n">
         <v>0.2857142857142857</v>
       </c>
-      <c r="P29" t="inlineStr">
+      <c r="R29" t="inlineStr">
         <is>
           <t>내행성</t>
-        </is>
-      </c>
-      <c r="Q29" t="n">
-        <v>0.1785714285714285</v>
-      </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>외행성</t>
         </is>
       </c>
       <c r="S29" t="n">
         <v>0.1785714285714285</v>
       </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>외행성</t>
+        </is>
+      </c>
+      <c r="U29" t="n">
+        <v>0.1785714285714285</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0.06403940886699508</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -2671,53 +2923,62 @@
       <c r="G30" t="n">
         <v>0.02692307692307692</v>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="H30" t="n">
+        <v>0.008945868945868947</v>
+      </c>
+      <c r="I30" t="inlineStr">
         <is>
           <t>항성</t>
         </is>
       </c>
-      <c r="I30" t="n">
+      <c r="J30" t="n">
         <v>0.1923076923076923</v>
       </c>
-      <c r="J30" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>갈릴레이위성</t>
         </is>
       </c>
-      <c r="K30" t="n">
+      <c r="L30" t="n">
         <v>0.1789940828402367</v>
       </c>
-      <c r="L30" t="inlineStr">
+      <c r="M30" t="inlineStr">
         <is>
           <t>달</t>
         </is>
       </c>
-      <c r="M30" t="n">
+      <c r="N30" t="n">
         <v>0.1662087912087912</v>
       </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>행성</t>
-        </is>
-      </c>
       <c r="O30" t="n">
+        <v>0.1110015340784572</v>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>행성</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
         <v>0.5384615384615385</v>
       </c>
-      <c r="P30" t="inlineStr">
+      <c r="R30" t="inlineStr">
         <is>
           <t>항성</t>
         </is>
       </c>
-      <c r="Q30" t="n">
+      <c r="S30" t="n">
         <v>0.3846153846153846</v>
       </c>
-      <c r="R30" t="inlineStr">
+      <c r="T30" t="inlineStr">
         <is>
           <t>왜소행성</t>
         </is>
       </c>
-      <c r="S30" t="n">
+      <c r="U30" t="n">
         <v>0.3076923076923077</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0.1253561253561254</v>
       </c>
     </row>
     <row r="31">
@@ -2750,53 +3011,62 @@
       <c r="G31" t="n">
         <v>0.02431289640591966</v>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="H31" t="n">
+        <v>0.008022081277895231</v>
+      </c>
+      <c r="I31" t="inlineStr">
         <is>
           <t>지구형행성</t>
         </is>
       </c>
-      <c r="I31" t="n">
+      <c r="J31" t="n">
         <v>0.187683284457478</v>
       </c>
-      <c r="J31" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>지구</t>
         </is>
       </c>
-      <c r="K31" t="n">
+      <c r="L31" t="n">
         <v>0.1454545454545455</v>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="M31" t="inlineStr">
         <is>
           <t>수성</t>
         </is>
       </c>
-      <c r="M31" t="n">
+      <c r="N31" t="n">
         <v>0.1385281385281385</v>
       </c>
-      <c r="N31" t="inlineStr">
+      <c r="O31" t="n">
+        <v>0.06562786577235218</v>
+      </c>
+      <c r="P31" t="inlineStr">
         <is>
           <t>지구형행성</t>
         </is>
       </c>
-      <c r="O31" t="n">
+      <c r="Q31" t="n">
         <v>0.2045454545454546</v>
       </c>
-      <c r="P31" t="inlineStr">
+      <c r="R31" t="inlineStr">
         <is>
           <t>천체</t>
         </is>
       </c>
-      <c r="Q31" t="n">
+      <c r="S31" t="n">
         <v>0.1590909090909091</v>
       </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>행성</t>
-        </is>
-      </c>
-      <c r="S31" t="n">
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>행성</t>
+        </is>
+      </c>
+      <c r="U31" t="n">
         <v>0.1363636363636364</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0.0686868686868687</v>
       </c>
     </row>
     <row r="32">
@@ -2829,41 +3099,39 @@
       <c r="G32" t="n">
         <v>0.2167487684729064</v>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>행성</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="H32" t="n">
+        <v>0.05927750410509032</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>행성</t>
+        </is>
+      </c>
+      <c r="J32" t="n">
         <v>0.2281947261663286</v>
       </c>
-      <c r="J32" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>수성</t>
         </is>
       </c>
-      <c r="K32" t="n">
+      <c r="L32" t="n">
         <v>0.2225287356321839</v>
       </c>
-      <c r="L32" t="inlineStr">
+      <c r="M32" t="inlineStr">
         <is>
           <t>금성</t>
         </is>
       </c>
-      <c r="M32" t="n">
+      <c r="N32" t="n">
         <v>0.2167487684729064</v>
       </c>
-      <c r="N32" t="inlineStr">
+      <c r="O32" t="n">
+        <v>0.1667773257409285</v>
+      </c>
+      <c r="P32" t="inlineStr">
         <is>
           <t>케플러법칙</t>
-        </is>
-      </c>
-      <c r="O32" t="n">
-        <v>0.2758620689655172</v>
-      </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>케플러2법칙</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -2871,11 +3139,22 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
+          <t>케플러2법칙</t>
+        </is>
+      </c>
+      <c r="S32" t="n">
+        <v>0.2758620689655172</v>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
           <t>태양계천체</t>
         </is>
       </c>
-      <c r="S32" t="n">
+      <c r="U32" t="n">
         <v>0.2413793103448276</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0.1310344827586207</v>
       </c>
     </row>
     <row r="33">
@@ -2908,53 +3187,62 @@
       <c r="G33" t="n">
         <v>0</v>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="H33" t="n">
+        <v>0.01101190476190476</v>
+      </c>
+      <c r="I33" t="inlineStr">
         <is>
           <t>궤도특성</t>
         </is>
       </c>
-      <c r="I33" t="n">
+      <c r="J33" t="n">
         <v>0.3333333333333333</v>
       </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>행성</t>
-        </is>
-      </c>
-      <c r="K33" t="n">
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>행성</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
         <v>0.2181818181818182</v>
       </c>
-      <c r="L33" t="inlineStr">
+      <c r="M33" t="inlineStr">
         <is>
           <t>왜소행성</t>
         </is>
       </c>
-      <c r="M33" t="n">
+      <c r="N33" t="n">
         <v>0.2181818181818182</v>
       </c>
-      <c r="N33" t="inlineStr">
+      <c r="O33" t="n">
+        <v>0.1445707070707071</v>
+      </c>
+      <c r="P33" t="inlineStr">
         <is>
           <t>궤도특성</t>
         </is>
       </c>
-      <c r="O33" t="n">
+      <c r="Q33" t="n">
         <v>0.8666666666666667</v>
       </c>
-      <c r="P33" t="inlineStr">
+      <c r="R33" t="inlineStr">
         <is>
           <t>케플러법칙</t>
         </is>
       </c>
-      <c r="Q33" t="n">
+      <c r="S33" t="n">
         <v>0.2666666666666667</v>
       </c>
-      <c r="R33" t="inlineStr">
+      <c r="T33" t="inlineStr">
         <is>
           <t>태양계천체</t>
         </is>
       </c>
-      <c r="S33" t="n">
+      <c r="U33" t="n">
         <v>0.2</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="34">
@@ -2987,41 +3275,39 @@
       <c r="G34" t="n">
         <v>0.07264957264957266</v>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="H34" t="n">
+        <v>0.0143976393976394</v>
+      </c>
+      <c r="I34" t="inlineStr">
         <is>
           <t>케플러1법칙</t>
         </is>
       </c>
-      <c r="I34" t="n">
+      <c r="J34" t="n">
         <v>0.2489711934156379</v>
       </c>
-      <c r="J34" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>태양</t>
         </is>
       </c>
-      <c r="K34" t="n">
+      <c r="L34" t="n">
         <v>0.2358674463937622</v>
       </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>행성</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>행성</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>0.2358674463937622</v>
       </c>
-      <c r="N34" t="inlineStr">
+      <c r="O34" t="n">
+        <v>0.1441969564110787</v>
+      </c>
+      <c r="P34" t="inlineStr">
         <is>
           <t>천체</t>
-        </is>
-      </c>
-      <c r="O34" t="n">
-        <v>0.5185185185185185</v>
-      </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>행성</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3029,11 +3315,22 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
+          <t>행성</t>
+        </is>
+      </c>
+      <c r="S34" t="n">
+        <v>0.5185185185185185</v>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
           <t>케플러1법칙</t>
         </is>
       </c>
-      <c r="S34" t="n">
+      <c r="U34" t="n">
         <v>0.4074074074074074</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0.1507936507936508</v>
       </c>
     </row>
     <row r="35">
@@ -3066,53 +3363,62 @@
       <c r="G35" t="n">
         <v>0.06068497474747474</v>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="H35" t="n">
+        <v>0.01498440285204991</v>
+      </c>
+      <c r="I35" t="inlineStr">
         <is>
           <t>암석</t>
         </is>
       </c>
-      <c r="I35" t="n">
+      <c r="J35" t="n">
         <v>0.1443001443001443</v>
       </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>행성</t>
-        </is>
-      </c>
-      <c r="K35" t="n">
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>행성</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
         <v>0.1349862258953168</v>
       </c>
-      <c r="L35" t="inlineStr">
+      <c r="M35" t="inlineStr">
         <is>
           <t>화성</t>
         </is>
       </c>
-      <c r="M35" t="n">
+      <c r="N35" t="n">
         <v>0.1283422459893048</v>
       </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>행성</t>
-        </is>
-      </c>
       <c r="O35" t="n">
+        <v>0.09529209020523417</v>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>행성</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
         <v>0.3636363636363636</v>
       </c>
-      <c r="P35" t="inlineStr">
+      <c r="R35" t="inlineStr">
         <is>
           <t>태양계</t>
         </is>
       </c>
-      <c r="Q35" t="n">
+      <c r="S35" t="n">
         <v>0.2727272727272727</v>
       </c>
-      <c r="R35" t="inlineStr">
+      <c r="T35" t="inlineStr">
         <is>
           <t>케플러법칙</t>
         </is>
       </c>
-      <c r="S35" t="n">
+      <c r="U35" t="n">
         <v>0.2121212121212121</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0.0926916221033868</v>
       </c>
     </row>
     <row r="36">
@@ -3145,53 +3451,62 @@
       <c r="G36" t="n">
         <v>0.008658008658008658</v>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="H36" t="n">
+        <v>0.003670242800677583</v>
+      </c>
+      <c r="I36" t="inlineStr">
         <is>
           <t>금성</t>
         </is>
       </c>
-      <c r="I36" t="n">
+      <c r="J36" t="n">
         <v>0.1022727272727273</v>
       </c>
-      <c r="J36" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>지구</t>
         </is>
       </c>
-      <c r="K36" t="n">
+      <c r="L36" t="n">
         <v>0.1022727272727273</v>
       </c>
-      <c r="L36" t="inlineStr">
+      <c r="M36" t="inlineStr">
         <is>
           <t>토성</t>
         </is>
       </c>
-      <c r="M36" t="n">
+      <c r="N36" t="n">
         <v>0.1022727272727273</v>
       </c>
-      <c r="N36" t="inlineStr">
+      <c r="O36" t="n">
+        <v>0.07351778656126481</v>
+      </c>
+      <c r="P36" t="inlineStr">
         <is>
           <t>케플러2법칙</t>
         </is>
       </c>
-      <c r="O36" t="n">
+      <c r="Q36" t="n">
         <v>0.2727272727272727</v>
       </c>
-      <c r="P36" t="inlineStr">
+      <c r="R36" t="inlineStr">
         <is>
           <t>천체</t>
         </is>
       </c>
-      <c r="Q36" t="n">
+      <c r="S36" t="n">
         <v>0.2272727272727273</v>
       </c>
-      <c r="R36" t="inlineStr">
+      <c r="T36" t="inlineStr">
         <is>
           <t>케플러3법칙</t>
         </is>
       </c>
-      <c r="S36" t="n">
+      <c r="U36" t="n">
         <v>0.1818181818181818</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0.1106719367588933</v>
       </c>
     </row>
     <row r="37">
@@ -3224,41 +3539,39 @@
       <c r="G37" t="n">
         <v>0.1678520625889047</v>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="H37" t="n">
+        <v>0.04460736039683408</v>
+      </c>
+      <c r="I37" t="inlineStr">
         <is>
           <t>외행성</t>
         </is>
       </c>
-      <c r="I37" t="n">
+      <c r="J37" t="n">
         <v>0.3561897702001482</v>
       </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>행성</t>
-        </is>
-      </c>
-      <c r="K37" t="n">
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>행성</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
         <v>0.3327562326869806</v>
       </c>
-      <c r="L37" t="inlineStr">
+      <c r="M37" t="inlineStr">
         <is>
           <t>목성</t>
         </is>
       </c>
-      <c r="M37" t="n">
+      <c r="N37" t="n">
         <v>0.29406364749082</v>
       </c>
-      <c r="N37" t="inlineStr">
+      <c r="O37" t="n">
+        <v>0.1899406225870162</v>
+      </c>
+      <c r="P37" t="inlineStr">
         <is>
           <t>외행성</t>
-        </is>
-      </c>
-      <c r="O37" t="n">
-        <v>0.3157894736842105</v>
-      </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>천왕성</t>
         </is>
       </c>
       <c r="Q37" t="n">
@@ -3266,11 +3579,22 @@
       </c>
       <c r="R37" t="inlineStr">
         <is>
+          <t>천왕성</t>
+        </is>
+      </c>
+      <c r="S37" t="n">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
           <t>목성</t>
         </is>
       </c>
-      <c r="S37" t="n">
+      <c r="U37" t="n">
         <v>0.2894736842105263</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0.1241565452091768</v>
       </c>
     </row>
     <row r="38">
@@ -3303,41 +3627,39 @@
       <c r="G38" t="n">
         <v>0.02702702702702703</v>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="H38" t="n">
+        <v>0.005788683420262368</v>
+      </c>
+      <c r="I38" t="inlineStr">
         <is>
           <t>항성</t>
         </is>
       </c>
-      <c r="I38" t="n">
+      <c r="J38" t="n">
         <v>0.1572481572481573</v>
       </c>
-      <c r="J38" t="inlineStr">
+      <c r="K38" t="inlineStr">
         <is>
           <t>내행성</t>
         </is>
       </c>
-      <c r="K38" t="n">
+      <c r="L38" t="n">
         <v>0.1324324324324324</v>
       </c>
-      <c r="L38" t="inlineStr">
+      <c r="M38" t="inlineStr">
         <is>
           <t>외행성</t>
         </is>
       </c>
-      <c r="M38" t="n">
+      <c r="N38" t="n">
         <v>0.1324324324324324</v>
       </c>
-      <c r="N38" t="inlineStr">
+      <c r="O38" t="n">
+        <v>0.0800902668282283</v>
+      </c>
+      <c r="P38" t="inlineStr">
         <is>
           <t>항성</t>
-        </is>
-      </c>
-      <c r="O38" t="n">
-        <v>0.2432432432432433</v>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>내행성</t>
         </is>
       </c>
       <c r="Q38" t="n">
@@ -3345,12 +3667,23 @@
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>외행성</t>
+          <t>내행성</t>
         </is>
       </c>
       <c r="S38" t="n">
         <v>0.2432432432432433</v>
       </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>외행성</t>
+        </is>
+      </c>
+      <c r="U38" t="n">
+        <v>0.2432432432432433</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0.08819345661450924</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -3382,53 +3715,62 @@
       <c r="G39" t="n">
         <v>0.002439024390243902</v>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="H39" t="n">
+        <v>0.0007694541231126598</v>
+      </c>
+      <c r="I39" t="inlineStr">
         <is>
           <t>큰일교차</t>
         </is>
       </c>
-      <c r="I39" t="n">
+      <c r="J39" t="n">
         <v>0.03658536585365853</v>
       </c>
-      <c r="J39" t="inlineStr">
+      <c r="K39" t="inlineStr">
         <is>
           <t>자전방향</t>
         </is>
       </c>
-      <c r="K39" t="n">
+      <c r="L39" t="n">
         <v>0.03658536585365853</v>
       </c>
-      <c r="L39" t="inlineStr">
+      <c r="M39" t="inlineStr">
         <is>
           <t>온실효과</t>
         </is>
       </c>
-      <c r="M39" t="n">
+      <c r="N39" t="n">
         <v>0.03658536585365853</v>
       </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>행성</t>
-        </is>
-      </c>
       <c r="O39" t="n">
+        <v>0.03029423151374371</v>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>행성</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
         <v>0.2195121951219512</v>
       </c>
-      <c r="P39" t="inlineStr">
+      <c r="R39" t="inlineStr">
         <is>
           <t>태양계천체</t>
         </is>
       </c>
-      <c r="Q39" t="n">
+      <c r="S39" t="n">
         <v>0.1463414634146342</v>
       </c>
-      <c r="R39" t="inlineStr">
+      <c r="T39" t="inlineStr">
         <is>
           <t>항성</t>
         </is>
       </c>
-      <c r="S39" t="n">
+      <c r="U39" t="n">
         <v>0.07317073170731708</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0.0464576074332172</v>
       </c>
     </row>
     <row r="40">
@@ -3461,53 +3803,62 @@
       <c r="G40" t="n">
         <v>0.005550416281221092</v>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="H40" t="n">
+        <v>0.001320151094665433</v>
+      </c>
+      <c r="I40" t="inlineStr">
         <is>
           <t>지구</t>
         </is>
       </c>
-      <c r="I40" t="n">
+      <c r="J40" t="n">
         <v>0.08510638297872339</v>
       </c>
-      <c r="J40" t="inlineStr">
+      <c r="K40" t="inlineStr">
         <is>
           <t>물</t>
         </is>
       </c>
-      <c r="K40" t="n">
+      <c r="L40" t="n">
         <v>0.08010012515644556</v>
       </c>
-      <c r="L40" t="inlineStr">
+      <c r="M40" t="inlineStr">
         <is>
           <t>목성</t>
         </is>
       </c>
-      <c r="M40" t="n">
+      <c r="N40" t="n">
         <v>0.07598784194528875</v>
       </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>행성</t>
-        </is>
-      </c>
       <c r="O40" t="n">
+        <v>0.03851555742298076</v>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>행성</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
         <v>0.2553191489361702</v>
       </c>
-      <c r="P40" t="inlineStr">
+      <c r="R40" t="inlineStr">
         <is>
           <t>태양계</t>
         </is>
       </c>
-      <c r="Q40" t="n">
+      <c r="S40" t="n">
         <v>0.1702127659574468</v>
       </c>
-      <c r="R40" t="inlineStr">
+      <c r="T40" t="inlineStr">
         <is>
           <t>내행성</t>
         </is>
       </c>
-      <c r="S40" t="n">
+      <c r="U40" t="n">
         <v>0.148936170212766</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0.05407801418439715</v>
       </c>
     </row>
     <row r="41">
@@ -3540,54 +3891,63 @@
       <c r="G41" t="n">
         <v>0.1170212765957447</v>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="H41" t="n">
+        <v>0.01496492445266728</v>
+      </c>
+      <c r="I41" t="inlineStr">
         <is>
           <t>태양계</t>
         </is>
       </c>
-      <c r="I41" t="n">
+      <c r="J41" t="n">
         <v>0.135498320268757</v>
       </c>
-      <c r="J41" t="inlineStr">
+      <c r="K41" t="inlineStr">
         <is>
           <t>내행성</t>
         </is>
       </c>
-      <c r="K41" t="n">
+      <c r="L41" t="n">
         <v>0.1225937183383992</v>
       </c>
-      <c r="L41" t="inlineStr">
+      <c r="M41" t="inlineStr">
         <is>
           <t>외행성</t>
         </is>
       </c>
-      <c r="M41" t="n">
+      <c r="N41" t="n">
         <v>0.1225937183383992</v>
       </c>
-      <c r="N41" t="inlineStr">
+      <c r="O41" t="n">
+        <v>0.07786657620528967</v>
+      </c>
+      <c r="P41" t="inlineStr">
         <is>
           <t>천체</t>
         </is>
       </c>
-      <c r="O41" t="n">
+      <c r="Q41" t="n">
         <v>0.2553191489361702</v>
       </c>
-      <c r="P41" t="inlineStr">
+      <c r="R41" t="inlineStr">
         <is>
           <t>내행성</t>
-        </is>
-      </c>
-      <c r="Q41" t="n">
-        <v>0.2127659574468085</v>
-      </c>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>외행성</t>
         </is>
       </c>
       <c r="S41" t="n">
         <v>0.2127659574468085</v>
       </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>외행성</t>
+        </is>
+      </c>
+      <c r="U41" t="n">
+        <v>0.2127659574468085</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0.0576241134751773</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -3619,54 +3979,63 @@
       <c r="G42" t="n">
         <v>0.02173913043478261</v>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>행성</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="H42" t="n">
+        <v>0.009492753623188405</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>행성</t>
+        </is>
+      </c>
+      <c r="J42" t="n">
         <v>0.1666666666666667</v>
       </c>
-      <c r="J42" t="inlineStr">
+      <c r="K42" t="inlineStr">
         <is>
           <t>소행성</t>
         </is>
       </c>
-      <c r="K42" t="n">
+      <c r="L42" t="n">
         <v>0.1333333333333333</v>
       </c>
-      <c r="L42" t="inlineStr">
+      <c r="M42" t="inlineStr">
         <is>
           <t>위성</t>
         </is>
       </c>
-      <c r="M42" t="n">
+      <c r="N42" t="n">
         <v>0.1302083333333333</v>
       </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>행성</t>
-        </is>
-      </c>
       <c r="O42" t="n">
+        <v>0.09794570707070709</v>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>행성</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="P42" t="inlineStr">
+      <c r="R42" t="inlineStr">
         <is>
           <t>천체</t>
-        </is>
-      </c>
-      <c r="Q42" t="n">
-        <v>0.2083333333333333</v>
-      </c>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>소행성</t>
         </is>
       </c>
       <c r="S42" t="n">
         <v>0.2083333333333333</v>
       </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>소행성</t>
+        </is>
+      </c>
+      <c r="U42" t="n">
+        <v>0.2083333333333333</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0.1033333333333333</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -3698,41 +4067,39 @@
       <c r="G43" t="n">
         <v>0.007936507936507936</v>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="H43" t="n">
+        <v>0.002280605728881591</v>
+      </c>
+      <c r="I43" t="inlineStr">
         <is>
           <t>타이탄</t>
         </is>
       </c>
-      <c r="I43" t="n">
+      <c r="J43" t="n">
         <v>0.09920634920634921</v>
       </c>
-      <c r="J43" t="inlineStr">
+      <c r="K43" t="inlineStr">
         <is>
           <t>달</t>
         </is>
       </c>
-      <c r="K43" t="n">
+      <c r="L43" t="n">
         <v>0.09920634920634921</v>
       </c>
-      <c r="L43" t="inlineStr">
+      <c r="M43" t="inlineStr">
         <is>
           <t>천왕성</t>
         </is>
       </c>
-      <c r="M43" t="n">
+      <c r="N43" t="n">
         <v>0.05357142857142857</v>
       </c>
-      <c r="N43" t="inlineStr">
+      <c r="O43" t="n">
+        <v>0.04932950191570881</v>
+      </c>
+      <c r="P43" t="inlineStr">
         <is>
           <t>태양계천체</t>
-        </is>
-      </c>
-      <c r="O43" t="n">
-        <v>0.2142857142857143</v>
-      </c>
-      <c r="P43" t="inlineStr">
-        <is>
-          <t>행성</t>
         </is>
       </c>
       <c r="Q43" t="n">
@@ -3740,11 +4107,22 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
+          <t>행성</t>
+        </is>
+      </c>
+      <c r="S43" t="n">
+        <v>0.2142857142857143</v>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
           <t>내행성</t>
         </is>
       </c>
-      <c r="S43" t="n">
+      <c r="U43" t="n">
         <v>0.1785714285714285</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0.07389162561576353</v>
       </c>
     </row>
     <row r="44">
@@ -3777,53 +4155,62 @@
       <c r="G44" t="n">
         <v>0.1073170731707317</v>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="H44" t="n">
+        <v>0.02791811846689896</v>
+      </c>
+      <c r="I44" t="inlineStr">
         <is>
           <t>태양계</t>
         </is>
       </c>
-      <c r="I44" t="n">
+      <c r="J44" t="n">
         <v>0.2879238548483046</v>
       </c>
-      <c r="J44" t="inlineStr">
+      <c r="K44" t="inlineStr">
         <is>
           <t>해왕성</t>
         </is>
       </c>
-      <c r="K44" t="n">
+      <c r="L44" t="n">
         <v>0.2360975609756098</v>
       </c>
-      <c r="L44" t="inlineStr">
+      <c r="M44" t="inlineStr">
         <is>
           <t>토성</t>
         </is>
       </c>
-      <c r="M44" t="n">
+      <c r="N44" t="n">
         <v>0.2270168855534709</v>
       </c>
-      <c r="N44" t="inlineStr">
+      <c r="O44" t="n">
+        <v>0.151173710579409</v>
+      </c>
+      <c r="P44" t="inlineStr">
         <is>
           <t>태양계</t>
         </is>
       </c>
-      <c r="O44" t="n">
+      <c r="Q44" t="n">
         <v>0.4146341463414634</v>
       </c>
-      <c r="P44" t="inlineStr">
+      <c r="R44" t="inlineStr">
         <is>
           <t>가스형</t>
         </is>
       </c>
-      <c r="Q44" t="n">
+      <c r="S44" t="n">
         <v>0.3414634146341464</v>
       </c>
-      <c r="R44" t="inlineStr">
+      <c r="T44" t="inlineStr">
         <is>
           <t>케플러법칙전제</t>
         </is>
       </c>
-      <c r="S44" t="n">
+      <c r="U44" t="n">
         <v>0.2195121951219512</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0.09175377468060396</v>
       </c>
     </row>
     <row r="45">
@@ -3856,41 +4243,39 @@
       <c r="G45" t="n">
         <v>0.05731225296442687</v>
       </c>
-      <c r="H45" t="inlineStr">
+      <c r="H45" t="n">
+        <v>0.01539855072463768</v>
+      </c>
+      <c r="I45" t="inlineStr">
         <is>
           <t>목성</t>
         </is>
       </c>
-      <c r="I45" t="n">
+      <c r="J45" t="n">
         <v>0.2318840579710145</v>
       </c>
-      <c r="J45" t="inlineStr">
+      <c r="K45" t="inlineStr">
         <is>
           <t>화성</t>
         </is>
       </c>
-      <c r="K45" t="n">
+      <c r="L45" t="n">
         <v>0.2236024844720497</v>
       </c>
-      <c r="L45" t="inlineStr">
+      <c r="M45" t="inlineStr">
         <is>
           <t>토성</t>
         </is>
       </c>
-      <c r="M45" t="n">
+      <c r="N45" t="n">
         <v>0.2158920539730135</v>
       </c>
-      <c r="N45" t="inlineStr">
+      <c r="O45" t="n">
+        <v>0.09213553453612468</v>
+      </c>
+      <c r="P45" t="inlineStr">
         <is>
           <t>지구형행성</t>
-        </is>
-      </c>
-      <c r="O45" t="n">
-        <v>0.2173913043478261</v>
-      </c>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>금성</t>
         </is>
       </c>
       <c r="Q45" t="n">
@@ -3898,12 +4283,23 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>지구</t>
+          <t>금성</t>
         </is>
       </c>
       <c r="S45" t="n">
         <v>0.2173913043478261</v>
       </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>지구</t>
+        </is>
+      </c>
+      <c r="U45" t="n">
+        <v>0.2173913043478261</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0.1304347826086956</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -3935,53 +4331,62 @@
       <c r="G46" t="n">
         <v>0.1</v>
       </c>
-      <c r="H46" t="inlineStr">
+      <c r="H46" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I46" t="inlineStr">
         <is>
           <t>케플러법칙</t>
         </is>
       </c>
-      <c r="I46" t="n">
+      <c r="J46" t="n">
         <v>0.5</v>
       </c>
-      <c r="J46" t="inlineStr">
+      <c r="K46" t="inlineStr">
         <is>
           <t>케플러1법칙</t>
         </is>
       </c>
-      <c r="K46" t="n">
+      <c r="L46" t="n">
         <v>0.3</v>
       </c>
-      <c r="L46" t="inlineStr">
+      <c r="M46" t="inlineStr">
         <is>
           <t>케플러2법칙</t>
         </is>
       </c>
-      <c r="M46" t="n">
+      <c r="N46" t="n">
         <v>0.3</v>
       </c>
-      <c r="N46" t="inlineStr">
+      <c r="O46" t="n">
+        <v>0.326984126984127</v>
+      </c>
+      <c r="P46" t="inlineStr">
         <is>
           <t>케플러법칙</t>
         </is>
       </c>
-      <c r="O46" t="n">
+      <c r="Q46" t="n">
         <v>1</v>
       </c>
-      <c r="P46" t="inlineStr">
+      <c r="R46" t="inlineStr">
         <is>
           <t>케플러1법칙</t>
         </is>
       </c>
-      <c r="Q46" t="n">
+      <c r="S46" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="R46" t="inlineStr">
+      <c r="T46" t="inlineStr">
         <is>
           <t>케플러2법칙</t>
         </is>
       </c>
-      <c r="S46" t="n">
+      <c r="U46" t="n">
         <v>0.5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="47">
@@ -4014,53 +4419,62 @@
       <c r="G47" t="n">
         <v>0.01282051282051282</v>
       </c>
-      <c r="H47" t="inlineStr">
+      <c r="H47" t="n">
+        <v>0.003510378510378511</v>
+      </c>
+      <c r="I47" t="inlineStr">
         <is>
           <t>만유인력</t>
         </is>
       </c>
-      <c r="I47" t="n">
+      <c r="J47" t="n">
         <v>0.08417508417508417</v>
       </c>
-      <c r="J47" t="inlineStr">
+      <c r="K47" t="inlineStr">
         <is>
           <t>수성</t>
         </is>
       </c>
-      <c r="K47" t="n">
+      <c r="L47" t="n">
         <v>0.08333333333333333</v>
       </c>
-      <c r="L47" t="inlineStr">
+      <c r="M47" t="inlineStr">
         <is>
           <t>금성</t>
         </is>
       </c>
-      <c r="M47" t="n">
+      <c r="N47" t="n">
         <v>0.08333333333333333</v>
       </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>행성</t>
-        </is>
-      </c>
       <c r="O47" t="n">
+        <v>0.05549428525619003</v>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>행성</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
         <v>0.3333333333333333</v>
       </c>
-      <c r="P47" t="inlineStr">
+      <c r="R47" t="inlineStr">
         <is>
           <t>태양계천체</t>
         </is>
       </c>
-      <c r="Q47" t="n">
+      <c r="S47" t="n">
         <v>0.1851851851851852</v>
       </c>
-      <c r="R47" t="inlineStr">
+      <c r="T47" t="inlineStr">
         <is>
           <t>지구형행성</t>
         </is>
       </c>
-      <c r="S47" t="n">
+      <c r="U47" t="n">
         <v>0.1481481481481481</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0.08994708994708997</v>
       </c>
     </row>
     <row r="48">
@@ -4093,54 +4507,63 @@
       <c r="G48" t="n">
         <v>0.03308823529411765</v>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="H48" t="n">
+        <v>0.01225490196078431</v>
+      </c>
+      <c r="I48" t="inlineStr">
         <is>
           <t>지구형행성</t>
         </is>
       </c>
-      <c r="I48" t="n">
+      <c r="J48" t="n">
         <v>0.1323529411764706</v>
       </c>
-      <c r="J48" t="inlineStr">
+      <c r="K48" t="inlineStr">
         <is>
           <t>목성형행성</t>
         </is>
       </c>
-      <c r="K48" t="n">
+      <c r="L48" t="n">
         <v>0.1323529411764706</v>
       </c>
-      <c r="L48" t="inlineStr">
+      <c r="M48" t="inlineStr">
         <is>
           <t>암석</t>
         </is>
       </c>
-      <c r="M48" t="n">
+      <c r="N48" t="n">
         <v>0.1176470588235294</v>
       </c>
-      <c r="N48" t="inlineStr">
+      <c r="O48" t="n">
+        <v>0.09128540305010895</v>
+      </c>
+      <c r="P48" t="inlineStr">
         <is>
           <t>목성형행성</t>
         </is>
       </c>
-      <c r="O48" t="n">
+      <c r="Q48" t="n">
         <v>0.2941176470588235</v>
       </c>
-      <c r="P48" t="inlineStr">
-        <is>
-          <t>행성</t>
-        </is>
-      </c>
-      <c r="Q48" t="n">
-        <v>0.2352941176470588</v>
-      </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>지구형행성</t>
+          <t>행성</t>
         </is>
       </c>
       <c r="S48" t="n">
         <v>0.2352941176470588</v>
       </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>지구형행성</t>
+        </is>
+      </c>
+      <c r="U48" t="n">
+        <v>0.2352941176470588</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0.1241830065359477</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -4172,54 +4595,63 @@
       <c r="G49" t="n">
         <v>0.1253561253561254</v>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="H49" t="n">
+        <v>0.02915140415140415</v>
+      </c>
+      <c r="I49" t="inlineStr">
         <is>
           <t>목성형행성</t>
         </is>
       </c>
-      <c r="I49" t="n">
+      <c r="J49" t="n">
         <v>0.2892892892892893</v>
       </c>
-      <c r="J49" t="inlineStr">
+      <c r="K49" t="inlineStr">
         <is>
           <t>지구형행성</t>
         </is>
       </c>
-      <c r="K49" t="n">
+      <c r="L49" t="n">
         <v>0.2744539411206078</v>
       </c>
-      <c r="L49" t="inlineStr">
+      <c r="M49" t="inlineStr">
         <is>
           <t>가스형행성</t>
         </is>
       </c>
-      <c r="M49" t="n">
+      <c r="N49" t="n">
         <v>0.218442932728647</v>
       </c>
-      <c r="N49" t="inlineStr">
+      <c r="O49" t="n">
+        <v>0.1316388540345287</v>
+      </c>
+      <c r="P49" t="inlineStr">
         <is>
           <t>지구형행성</t>
         </is>
       </c>
-      <c r="O49" t="n">
+      <c r="Q49" t="n">
         <v>0.4074074074074074</v>
       </c>
-      <c r="P49" t="inlineStr">
+      <c r="R49" t="inlineStr">
         <is>
           <t>태양</t>
-        </is>
-      </c>
-      <c r="Q49" t="n">
-        <v>0.2962962962962963</v>
-      </c>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>케플러법칙</t>
         </is>
       </c>
       <c r="S49" t="n">
         <v>0.2962962962962963</v>
       </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>케플러법칙</t>
+        </is>
+      </c>
+      <c r="U49" t="n">
+        <v>0.2962962962962963</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0.1111111111111111</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -4251,41 +4683,39 @@
       <c r="G50" t="n">
         <v>0.04761904761904762</v>
       </c>
-      <c r="H50" t="inlineStr">
+      <c r="H50" t="n">
+        <v>0.009523809523809525</v>
+      </c>
+      <c r="I50" t="inlineStr">
         <is>
           <t>암석형</t>
         </is>
       </c>
-      <c r="I50" t="n">
+      <c r="J50" t="n">
         <v>0.1</v>
       </c>
-      <c r="J50" t="inlineStr">
+      <c r="K50" t="inlineStr">
         <is>
           <t>수성</t>
         </is>
       </c>
-      <c r="K50" t="n">
+      <c r="L50" t="n">
         <v>0.1</v>
       </c>
-      <c r="L50" t="inlineStr">
+      <c r="M50" t="inlineStr">
         <is>
           <t>금성</t>
         </is>
       </c>
-      <c r="M50" t="n">
+      <c r="N50" t="n">
         <v>0.1</v>
       </c>
-      <c r="N50" t="inlineStr">
+      <c r="O50" t="n">
+        <v>0.08194444444444444</v>
+      </c>
+      <c r="P50" t="inlineStr">
         <is>
           <t>지구형행성</t>
-        </is>
-      </c>
-      <c r="O50" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="P50" t="inlineStr">
-        <is>
-          <t>목성형행성</t>
         </is>
       </c>
       <c r="Q50" t="n">
@@ -4293,11 +4723,22 @@
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>행성</t>
+          <t>목성형행성</t>
         </is>
       </c>
       <c r="S50" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>행성</t>
+        </is>
+      </c>
+      <c r="U50" t="n">
         <v>0.2</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0.1166666666666667</v>
       </c>
     </row>
     <row r="51">
@@ -4330,54 +4771,63 @@
       <c r="G51" t="n">
         <v>0.08064516129032258</v>
       </c>
-      <c r="H51" t="inlineStr">
+      <c r="H51" t="n">
+        <v>0.01965725806451613</v>
+      </c>
+      <c r="I51" t="inlineStr">
         <is>
           <t>화성</t>
         </is>
       </c>
-      <c r="I51" t="n">
+      <c r="J51" t="n">
         <v>0.1806451612903226</v>
       </c>
-      <c r="J51" t="inlineStr">
+      <c r="K51" t="inlineStr">
         <is>
           <t>목성</t>
         </is>
       </c>
-      <c r="K51" t="n">
+      <c r="L51" t="n">
         <v>0.1756272401433692</v>
       </c>
-      <c r="L51" t="inlineStr">
+      <c r="M51" t="inlineStr">
         <is>
           <t>토성</t>
         </is>
       </c>
-      <c r="M51" t="n">
+      <c r="N51" t="n">
         <v>0.166383701188455</v>
       </c>
-      <c r="N51" t="inlineStr">
+      <c r="O51" t="n">
+        <v>0.09491257219337151</v>
+      </c>
+      <c r="P51" t="inlineStr">
         <is>
           <t>화성</t>
         </is>
       </c>
-      <c r="O51" t="n">
+      <c r="Q51" t="n">
         <v>0.2580645161290323</v>
       </c>
-      <c r="P51" t="inlineStr">
+      <c r="R51" t="inlineStr">
         <is>
           <t>금성</t>
-        </is>
-      </c>
-      <c r="Q51" t="n">
-        <v>0.2258064516129032</v>
-      </c>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>토성</t>
         </is>
       </c>
       <c r="S51" t="n">
         <v>0.2258064516129032</v>
       </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>토성</t>
+        </is>
+      </c>
+      <c r="U51" t="n">
+        <v>0.2258064516129032</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0.09475806451612903</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -4409,54 +4859,63 @@
       <c r="G52" t="n">
         <v>0.07692307692307691</v>
       </c>
-      <c r="H52" t="inlineStr">
+      <c r="H52" t="n">
+        <v>0.0125</v>
+      </c>
+      <c r="I52" t="inlineStr">
         <is>
           <t>내행성</t>
         </is>
       </c>
-      <c r="I52" t="n">
+      <c r="J52" t="n">
         <v>0.1601000625390869</v>
       </c>
-      <c r="J52" t="inlineStr">
+      <c r="K52" t="inlineStr">
         <is>
           <t>수성</t>
         </is>
       </c>
-      <c r="K52" t="n">
+      <c r="L52" t="n">
         <v>0.127763041556145</v>
       </c>
-      <c r="L52" t="inlineStr">
+      <c r="M52" t="inlineStr">
         <is>
           <t>금성</t>
         </is>
       </c>
-      <c r="M52" t="n">
+      <c r="N52" t="n">
         <v>0.127763041556145</v>
       </c>
-      <c r="N52" t="inlineStr">
+      <c r="O52" t="n">
+        <v>0.07611140613605576</v>
+      </c>
+      <c r="P52" t="inlineStr">
         <is>
           <t>내행성</t>
         </is>
       </c>
-      <c r="O52" t="n">
+      <c r="Q52" t="n">
         <v>0.2307692307692308</v>
       </c>
-      <c r="P52" t="inlineStr">
+      <c r="R52" t="inlineStr">
         <is>
           <t>태양계행성</t>
-        </is>
-      </c>
-      <c r="Q52" t="n">
-        <v>0.1538461538461539</v>
-      </c>
-      <c r="R52" t="inlineStr">
-        <is>
-          <t>좌표계</t>
         </is>
       </c>
       <c r="S52" t="n">
         <v>0.1538461538461539</v>
       </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>좌표계</t>
+        </is>
+      </c>
+      <c r="U52" t="n">
+        <v>0.1538461538461539</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0.07564102564102564</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -4488,41 +4947,39 @@
       <c r="G53" t="n">
         <v>0.02105263157894737</v>
       </c>
-      <c r="H53" t="inlineStr">
+      <c r="H53" t="n">
+        <v>0.003759398496240601</v>
+      </c>
+      <c r="I53" t="inlineStr">
         <is>
           <t>천왕성</t>
         </is>
       </c>
-      <c r="I53" t="n">
+      <c r="J53" t="n">
         <v>0.1142857142857143</v>
       </c>
-      <c r="J53" t="inlineStr">
+      <c r="K53" t="inlineStr">
         <is>
           <t>해왕성</t>
         </is>
       </c>
-      <c r="K53" t="n">
+      <c r="L53" t="n">
         <v>0.1142857142857143</v>
       </c>
-      <c r="L53" t="inlineStr">
+      <c r="M53" t="inlineStr">
         <is>
           <t>수성</t>
         </is>
       </c>
-      <c r="M53" t="n">
+      <c r="N53" t="n">
         <v>0.075</v>
       </c>
-      <c r="N53" t="inlineStr">
+      <c r="O53" t="n">
+        <v>0.06326530612244899</v>
+      </c>
+      <c r="P53" t="inlineStr">
         <is>
           <t>행성외천체</t>
-        </is>
-      </c>
-      <c r="O53" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="P53" t="inlineStr">
-        <is>
-          <t>내행성</t>
         </is>
       </c>
       <c r="Q53" t="n">
@@ -4530,12 +4987,23 @@
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>외행성</t>
+          <t>내행성</t>
         </is>
       </c>
       <c r="S53" t="n">
         <v>0.25</v>
       </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>외행성</t>
+        </is>
+      </c>
+      <c r="U53" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0.09999999999999998</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -4567,53 +5035,62 @@
       <c r="G54" t="n">
         <v>0.1471264367816092</v>
       </c>
-      <c r="H54" t="inlineStr">
+      <c r="H54" t="n">
+        <v>0.02521319985168706</v>
+      </c>
+      <c r="I54" t="inlineStr">
         <is>
           <t>케플러법칙</t>
         </is>
       </c>
-      <c r="I54" t="n">
+      <c r="J54" t="n">
         <v>0.2083333333333333</v>
       </c>
-      <c r="J54" t="inlineStr">
+      <c r="K54" t="inlineStr">
         <is>
           <t>공전</t>
         </is>
       </c>
-      <c r="K54" t="n">
+      <c r="L54" t="n">
         <v>0.1587301587301587</v>
       </c>
-      <c r="L54" t="inlineStr">
+      <c r="M54" t="inlineStr">
         <is>
           <t>장반경</t>
         </is>
       </c>
-      <c r="M54" t="n">
+      <c r="N54" t="n">
         <v>0.144927536231884</v>
       </c>
-      <c r="N54" t="inlineStr">
+      <c r="O54" t="n">
+        <v>0.1008242230565837</v>
+      </c>
+      <c r="P54" t="inlineStr">
         <is>
           <t>케플러법칙</t>
         </is>
       </c>
-      <c r="O54" t="n">
+      <c r="Q54" t="n">
         <v>0.3333333333333333</v>
       </c>
-      <c r="P54" t="inlineStr">
+      <c r="R54" t="inlineStr">
         <is>
           <t>외행성</t>
         </is>
       </c>
-      <c r="Q54" t="n">
+      <c r="S54" t="n">
         <v>0.2333333333333333</v>
       </c>
-      <c r="R54" t="inlineStr">
+      <c r="T54" t="inlineStr">
         <is>
           <t>천체</t>
         </is>
       </c>
-      <c r="S54" t="n">
+      <c r="U54" t="n">
         <v>0.1666666666666667</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0.09677419354838708</v>
       </c>
     </row>
     <row r="55">
@@ -4646,53 +5123,62 @@
       <c r="G55" t="n">
         <v>0.01904761904761905</v>
       </c>
-      <c r="H55" t="inlineStr">
+      <c r="H55" t="n">
+        <v>0.004112554112554113</v>
+      </c>
+      <c r="I55" t="inlineStr">
         <is>
           <t>천체</t>
         </is>
       </c>
-      <c r="I55" t="n">
+      <c r="J55" t="n">
         <v>0.5121951219512195</v>
       </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>행성</t>
-        </is>
-      </c>
-      <c r="K55" t="n">
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>행성</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
         <v>0.4023809523809524</v>
       </c>
-      <c r="L55" t="inlineStr">
+      <c r="M55" t="inlineStr">
         <is>
           <t>궤도</t>
         </is>
       </c>
-      <c r="M55" t="n">
+      <c r="N55" t="n">
         <v>0.3353174603174603</v>
       </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>행성</t>
-        </is>
-      </c>
       <c r="O55" t="n">
+        <v>0.06330684897758068</v>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>행성</t>
+        </is>
+      </c>
+      <c r="Q55" t="n">
         <v>0.5238095238095237</v>
       </c>
-      <c r="P55" t="inlineStr">
+      <c r="R55" t="inlineStr">
         <is>
           <t>천체</t>
         </is>
       </c>
-      <c r="Q55" t="n">
+      <c r="S55" t="n">
         <v>0.3809523809523809</v>
       </c>
-      <c r="R55" t="inlineStr">
+      <c r="T55" t="inlineStr">
         <is>
           <t>케플러법칙</t>
         </is>
       </c>
-      <c r="S55" t="n">
+      <c r="U55" t="n">
         <v>0.1904761904761905</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0.09523809523809522</v>
       </c>
     </row>
     <row r="56">
@@ -4725,54 +5211,63 @@
       <c r="G56" t="n">
         <v>0.02666666666666667</v>
       </c>
-      <c r="H56" t="inlineStr">
+      <c r="H56" t="n">
+        <v>0.007564102564102564</v>
+      </c>
+      <c r="I56" t="inlineStr">
         <is>
           <t>케플러1법칙</t>
         </is>
       </c>
-      <c r="I56" t="n">
+      <c r="J56" t="n">
         <v>0.1633333333333334</v>
       </c>
-      <c r="J56" t="inlineStr">
+      <c r="K56" t="inlineStr">
         <is>
           <t>케플러3법칙</t>
         </is>
       </c>
-      <c r="K56" t="n">
+      <c r="L56" t="n">
         <v>0.1633333333333334</v>
       </c>
-      <c r="L56" t="inlineStr">
+      <c r="M56" t="inlineStr">
         <is>
           <t>장반경</t>
         </is>
       </c>
-      <c r="M56" t="n">
+      <c r="N56" t="n">
         <v>0.1507692307692308</v>
       </c>
-      <c r="N56" t="inlineStr">
+      <c r="O56" t="n">
+        <v>0.08289621916544992</v>
+      </c>
+      <c r="P56" t="inlineStr">
         <is>
           <t>장반경</t>
         </is>
       </c>
-      <c r="O56" t="n">
+      <c r="Q56" t="n">
         <v>0.32</v>
       </c>
-      <c r="P56" t="inlineStr">
-        <is>
-          <t>행성</t>
-        </is>
-      </c>
-      <c r="Q56" t="n">
-        <v>0.2</v>
-      </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>지구형행성</t>
+          <t>행성</t>
         </is>
       </c>
       <c r="S56" t="n">
         <v>0.2</v>
       </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>지구형행성</t>
+        </is>
+      </c>
+      <c r="U56" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -4804,53 +5299,62 @@
       <c r="G57" t="n">
         <v>0.02380952380952381</v>
       </c>
-      <c r="H57" t="inlineStr">
+      <c r="H57" t="n">
+        <v>0.006199056199056199</v>
+      </c>
+      <c r="I57" t="inlineStr">
         <is>
           <t>토성</t>
         </is>
       </c>
-      <c r="I57" t="n">
+      <c r="J57" t="n">
         <v>0.140625</v>
       </c>
-      <c r="J57" t="inlineStr">
+      <c r="K57" t="inlineStr">
         <is>
           <t>금성</t>
         </is>
       </c>
-      <c r="K57" t="n">
+      <c r="L57" t="n">
         <v>0.1185185185185185</v>
       </c>
-      <c r="L57" t="inlineStr">
+      <c r="M57" t="inlineStr">
         <is>
           <t>화성</t>
         </is>
       </c>
-      <c r="M57" t="n">
+      <c r="N57" t="n">
         <v>0.1185185185185185</v>
       </c>
-      <c r="N57" t="inlineStr">
+      <c r="O57" t="n">
+        <v>0.07311506790673458</v>
+      </c>
+      <c r="P57" t="inlineStr">
         <is>
           <t>토성</t>
         </is>
       </c>
-      <c r="O57" t="n">
+      <c r="Q57" t="n">
         <v>0.2222222222222222</v>
       </c>
-      <c r="P57" t="inlineStr">
-        <is>
-          <t>행성</t>
-        </is>
-      </c>
-      <c r="Q57" t="n">
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>행성</t>
+        </is>
+      </c>
+      <c r="S57" t="n">
         <v>0.1944444444444444</v>
       </c>
-      <c r="R57" t="inlineStr">
+      <c r="T57" t="inlineStr">
         <is>
           <t>외행성</t>
         </is>
       </c>
-      <c r="S57" t="n">
+      <c r="U57" t="n">
         <v>0.1666666666666667</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0.09459459459459457</v>
       </c>
     </row>
     <row r="58">
@@ -4883,41 +5387,39 @@
       <c r="G58" t="n">
         <v>0.04182795698924731</v>
       </c>
-      <c r="H58" t="inlineStr">
+      <c r="H58" t="n">
+        <v>0.01172715053763441</v>
+      </c>
+      <c r="I58" t="inlineStr">
         <is>
           <t>목성형행성</t>
         </is>
       </c>
-      <c r="I58" t="n">
+      <c r="J58" t="n">
         <v>0.232258064516129</v>
       </c>
-      <c r="J58" t="inlineStr">
+      <c r="K58" t="inlineStr">
         <is>
           <t>지구형행성</t>
         </is>
       </c>
-      <c r="K58" t="n">
+      <c r="L58" t="n">
         <v>0.2168458781362007</v>
       </c>
-      <c r="L58" t="inlineStr">
+      <c r="M58" t="inlineStr">
         <is>
           <t>목성</t>
         </is>
       </c>
-      <c r="M58" t="n">
+      <c r="N58" t="n">
         <v>0.2019635343618513</v>
       </c>
-      <c r="N58" t="inlineStr">
+      <c r="O58" t="n">
+        <v>0.1196175040344072</v>
+      </c>
+      <c r="P58" t="inlineStr">
         <is>
           <t>지구형행성</t>
-        </is>
-      </c>
-      <c r="O58" t="n">
-        <v>0.3225806451612903</v>
-      </c>
-      <c r="P58" t="inlineStr">
-        <is>
-          <t>목성형행성</t>
         </is>
       </c>
       <c r="Q58" t="n">
@@ -4925,11 +5427,22 @@
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>행성</t>
+          <t>목성형행성</t>
         </is>
       </c>
       <c r="S58" t="n">
+        <v>0.3225806451612903</v>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>행성</t>
+        </is>
+      </c>
+      <c r="U58" t="n">
         <v>0.2903225806451613</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0.1189516129032258</v>
       </c>
     </row>
     <row r="59">
@@ -4962,54 +5475,63 @@
       <c r="G59" t="n">
         <v>0.00923076923076923</v>
       </c>
-      <c r="H59" t="inlineStr">
+      <c r="H59" t="n">
+        <v>0.002051282051282051</v>
+      </c>
+      <c r="I59" t="inlineStr">
         <is>
           <t>천체</t>
         </is>
       </c>
-      <c r="I59" t="n">
+      <c r="J59" t="n">
         <v>0.1538461538461539</v>
       </c>
-      <c r="J59" t="inlineStr">
+      <c r="K59" t="inlineStr">
         <is>
           <t>항성</t>
         </is>
       </c>
-      <c r="K59" t="n">
+      <c r="L59" t="n">
         <v>0.08791208791208792</v>
       </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>행성</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>행성</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>0.08791208791208792</v>
       </c>
-      <c r="N59" t="inlineStr">
+      <c r="O59" t="n">
+        <v>0.05504680504680506</v>
+      </c>
+      <c r="P59" t="inlineStr">
         <is>
           <t>천체</t>
         </is>
       </c>
-      <c r="O59" t="n">
+      <c r="Q59" t="n">
         <v>0.3076923076923077</v>
       </c>
-      <c r="P59" t="inlineStr">
+      <c r="R59" t="inlineStr">
         <is>
           <t>내행성</t>
-        </is>
-      </c>
-      <c r="Q59" t="n">
-        <v>0.1923076923076923</v>
-      </c>
-      <c r="R59" t="inlineStr">
-        <is>
-          <t>외행성</t>
         </is>
       </c>
       <c r="S59" t="n">
         <v>0.1923076923076923</v>
       </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>외행성</t>
+        </is>
+      </c>
+      <c r="U59" t="n">
+        <v>0.1923076923076923</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0.07977207977207977</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -5041,53 +5563,62 @@
       <c r="G60" t="n">
         <v>0.01515151515151515</v>
       </c>
-      <c r="H60" t="inlineStr">
+      <c r="H60" t="n">
+        <v>0.01223776223776224</v>
+      </c>
+      <c r="I60" t="inlineStr">
         <is>
           <t>항성</t>
         </is>
       </c>
-      <c r="I60" t="n">
+      <c r="J60" t="n">
         <v>0.2666666666666667</v>
       </c>
-      <c r="J60" t="inlineStr">
+      <c r="K60" t="inlineStr">
         <is>
           <t>도플러효과</t>
         </is>
       </c>
-      <c r="K60" t="n">
+      <c r="L60" t="n">
         <v>0.2222222222222222</v>
       </c>
-      <c r="L60" t="inlineStr">
+      <c r="M60" t="inlineStr">
         <is>
           <t>질량공식</t>
         </is>
       </c>
-      <c r="M60" t="n">
+      <c r="N60" t="n">
         <v>0.2083333333333333</v>
       </c>
-      <c r="N60" t="inlineStr">
+      <c r="O60" t="n">
+        <v>0.1376780626780627</v>
+      </c>
+      <c r="P60" t="inlineStr">
         <is>
           <t>항성</t>
         </is>
       </c>
-      <c r="O60" t="n">
+      <c r="Q60" t="n">
         <v>0.5</v>
       </c>
-      <c r="P60" t="inlineStr">
+      <c r="R60" t="inlineStr">
         <is>
           <t>도플러효과</t>
         </is>
       </c>
-      <c r="Q60" t="n">
+      <c r="S60" t="n">
         <v>0.3333333333333333</v>
       </c>
-      <c r="R60" t="inlineStr">
+      <c r="T60" t="inlineStr">
         <is>
           <t>천문학</t>
         </is>
       </c>
-      <c r="S60" t="n">
+      <c r="U60" t="n">
         <v>0.25</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0.2051282051282051</v>
       </c>
     </row>
     <row r="61">
@@ -5120,53 +5651,62 @@
       <c r="G61" t="n">
         <v>0.1967741935483871</v>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>행성</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="H61" t="n">
+        <v>0.04274193548387097</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>행성</t>
+        </is>
+      </c>
+      <c r="J61" t="n">
         <v>0.3953328757721345</v>
       </c>
-      <c r="J61" t="inlineStr">
+      <c r="K61" t="inlineStr">
         <is>
           <t>태양계</t>
         </is>
       </c>
-      <c r="K61" t="n">
+      <c r="L61" t="n">
         <v>0.3378299120234604</v>
       </c>
-      <c r="L61" t="inlineStr">
+      <c r="M61" t="inlineStr">
         <is>
           <t>거대행성</t>
         </is>
       </c>
-      <c r="M61" t="n">
+      <c r="N61" t="n">
         <v>0.3317972350230414</v>
       </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>행성</t>
-        </is>
-      </c>
       <c r="O61" t="n">
+        <v>0.2131565256379533</v>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>행성</t>
+        </is>
+      </c>
+      <c r="Q61" t="n">
         <v>0.3870967741935484</v>
       </c>
-      <c r="P61" t="inlineStr">
+      <c r="R61" t="inlineStr">
         <is>
           <t>거대행성</t>
         </is>
       </c>
-      <c r="Q61" t="n">
+      <c r="S61" t="n">
         <v>0.3225806451612903</v>
       </c>
-      <c r="R61" t="inlineStr">
+      <c r="T61" t="inlineStr">
         <is>
           <t>태양계</t>
         </is>
       </c>
-      <c r="S61" t="n">
+      <c r="U61" t="n">
         <v>0.2903225806451613</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0.1350806451612903</v>
       </c>
     </row>
     <row r="62">
@@ -5199,54 +5739,63 @@
       <c r="G62" t="n">
         <v>0.0108695652173913</v>
       </c>
-      <c r="H62" t="inlineStr">
+      <c r="H62" t="n">
+        <v>0.003260869565217392</v>
+      </c>
+      <c r="I62" t="inlineStr">
         <is>
           <t>토성</t>
         </is>
       </c>
-      <c r="I62" t="n">
+      <c r="J62" t="n">
         <v>0.1488095238095238</v>
       </c>
-      <c r="J62" t="inlineStr">
+      <c r="K62" t="inlineStr">
         <is>
           <t>천왕성</t>
         </is>
       </c>
-      <c r="K62" t="n">
+      <c r="L62" t="n">
         <v>0.1488095238095238</v>
       </c>
-      <c r="L62" t="inlineStr">
+      <c r="M62" t="inlineStr">
         <is>
           <t>목성</t>
         </is>
       </c>
-      <c r="M62" t="n">
+      <c r="N62" t="n">
         <v>0.1157407407407408</v>
       </c>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>행성</t>
-        </is>
-      </c>
       <c r="O62" t="n">
+        <v>0.0661957671957672</v>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>행성</t>
+        </is>
+      </c>
+      <c r="Q62" t="n">
         <v>0.375</v>
       </c>
-      <c r="P62" t="inlineStr">
+      <c r="R62" t="inlineStr">
         <is>
           <t>토성</t>
-        </is>
-      </c>
-      <c r="Q62" t="n">
-        <v>0.2083333333333333</v>
-      </c>
-      <c r="R62" t="inlineStr">
-        <is>
-          <t>천왕성</t>
         </is>
       </c>
       <c r="S62" t="n">
         <v>0.2083333333333333</v>
       </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>천왕성</t>
+        </is>
+      </c>
+      <c r="U62" t="n">
+        <v>0.2083333333333333</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0.1033333333333333</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -5278,53 +5827,62 @@
       <c r="G63" t="n">
         <v>0.01333333333333333</v>
       </c>
-      <c r="H63" t="inlineStr">
+      <c r="H63" t="n">
+        <v>0.003012820512820513</v>
+      </c>
+      <c r="I63" t="inlineStr">
         <is>
           <t>목성</t>
         </is>
       </c>
-      <c r="I63" t="n">
+      <c r="J63" t="n">
         <v>0.064</v>
       </c>
-      <c r="J63" t="inlineStr">
+      <c r="K63" t="inlineStr">
         <is>
           <t>토성</t>
         </is>
       </c>
-      <c r="K63" t="n">
+      <c r="L63" t="n">
         <v>0.064</v>
       </c>
-      <c r="L63" t="inlineStr">
+      <c r="M63" t="inlineStr">
         <is>
           <t>천왕성</t>
         </is>
       </c>
-      <c r="M63" t="n">
+      <c r="N63" t="n">
         <v>0.064</v>
       </c>
-      <c r="N63" t="inlineStr">
+      <c r="O63" t="n">
+        <v>0.04779487179487179</v>
+      </c>
+      <c r="P63" t="inlineStr">
         <is>
           <t>태양계천체</t>
         </is>
       </c>
-      <c r="O63" t="n">
+      <c r="Q63" t="n">
         <v>0.24</v>
       </c>
-      <c r="P63" t="inlineStr">
+      <c r="R63" t="inlineStr">
         <is>
           <t>지구형행성</t>
         </is>
       </c>
-      <c r="Q63" t="n">
+      <c r="S63" t="n">
         <v>0.2</v>
       </c>
-      <c r="R63" t="inlineStr">
+      <c r="T63" t="inlineStr">
         <is>
           <t>카이퍼벨트</t>
         </is>
       </c>
-      <c r="S63" t="n">
+      <c r="U63" t="n">
         <v>0.16</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0.07384615384615384</v>
       </c>
     </row>
     <row r="64">
@@ -5357,53 +5915,62 @@
       <c r="G64" t="n">
         <v>0.01731601731601732</v>
       </c>
-      <c r="H64" t="inlineStr">
+      <c r="H64" t="n">
+        <v>0.004423113118765294</v>
+      </c>
+      <c r="I64" t="inlineStr">
         <is>
           <t>목성</t>
         </is>
       </c>
-      <c r="I64" t="n">
+      <c r="J64" t="n">
         <v>0.07272727272727274</v>
       </c>
-      <c r="J64" t="inlineStr">
+      <c r="K64" t="inlineStr">
         <is>
           <t>토성</t>
         </is>
       </c>
-      <c r="K64" t="n">
+      <c r="L64" t="n">
         <v>0.07272727272727274</v>
       </c>
-      <c r="L64" t="inlineStr">
+      <c r="M64" t="inlineStr">
         <is>
           <t>천왕성</t>
         </is>
       </c>
-      <c r="M64" t="n">
+      <c r="N64" t="n">
         <v>0.07272727272727274</v>
       </c>
-      <c r="N64" t="inlineStr">
+      <c r="O64" t="n">
+        <v>0.05546772068511199</v>
+      </c>
+      <c r="P64" t="inlineStr">
         <is>
           <t>지구형행성</t>
         </is>
       </c>
-      <c r="O64" t="n">
+      <c r="Q64" t="n">
         <v>0.2272727272727273</v>
       </c>
-      <c r="P64" t="inlineStr">
-        <is>
-          <t>행성</t>
-        </is>
-      </c>
-      <c r="Q64" t="n">
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>행성</t>
+        </is>
+      </c>
+      <c r="S64" t="n">
         <v>0.1818181818181818</v>
       </c>
-      <c r="R64" t="inlineStr">
+      <c r="T64" t="inlineStr">
         <is>
           <t>태양계천체</t>
         </is>
       </c>
-      <c r="S64" t="n">
+      <c r="U64" t="n">
         <v>0.1363636363636364</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0.08300395256916994</v>
       </c>
     </row>
     <row r="65">
@@ -5436,41 +6003,39 @@
       <c r="G65" t="n">
         <v>0.4638447971781305</v>
       </c>
-      <c r="H65" t="inlineStr">
+      <c r="H65" t="n">
+        <v>0.1051359241014413</v>
+      </c>
+      <c r="I65" t="inlineStr">
         <is>
           <t>태양계</t>
         </is>
       </c>
-      <c r="I65" t="n">
+      <c r="J65" t="n">
         <v>0.3772321428571428</v>
       </c>
-      <c r="J65" t="inlineStr">
+      <c r="K65" t="inlineStr">
         <is>
           <t>지구형행성</t>
         </is>
       </c>
-      <c r="K65" t="n">
+      <c r="L65" t="n">
         <v>0.349896480331263</v>
       </c>
-      <c r="L65" t="inlineStr">
+      <c r="M65" t="inlineStr">
         <is>
           <t>천체물리</t>
         </is>
       </c>
-      <c r="M65" t="n">
+      <c r="N65" t="n">
         <v>0.3307240704500978</v>
       </c>
-      <c r="N65" t="inlineStr">
+      <c r="O65" t="n">
+        <v>0.2419331867225442</v>
+      </c>
+      <c r="P65" t="inlineStr">
         <is>
           <t>지구형행성</t>
-        </is>
-      </c>
-      <c r="O65" t="n">
-        <v>0.3571428571428571</v>
-      </c>
-      <c r="P65" t="inlineStr">
-        <is>
-          <t>가스형행성</t>
         </is>
       </c>
       <c r="Q65" t="n">
@@ -5478,11 +6043,22 @@
       </c>
       <c r="R65" t="inlineStr">
         <is>
+          <t>가스형행성</t>
+        </is>
+      </c>
+      <c r="S65" t="n">
+        <v>0.3571428571428571</v>
+      </c>
+      <c r="T65" t="inlineStr">
+        <is>
           <t>자기장</t>
         </is>
       </c>
-      <c r="S65" t="n">
+      <c r="U65" t="n">
         <v>0.2857142857142857</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0.1527093596059113</v>
       </c>
     </row>
     <row r="66">
@@ -5515,41 +6091,39 @@
       <c r="G66" t="n">
         <v>0.2264808362369338</v>
       </c>
-      <c r="H66" t="inlineStr">
+      <c r="H66" t="n">
+        <v>0.04305431758636524</v>
+      </c>
+      <c r="I66" t="inlineStr">
         <is>
           <t>지구</t>
         </is>
       </c>
-      <c r="I66" t="n">
+      <c r="J66" t="n">
         <v>0.2335907335907336</v>
       </c>
-      <c r="J66" t="inlineStr">
+      <c r="K66" t="inlineStr">
         <is>
           <t>금성</t>
         </is>
       </c>
-      <c r="K66" t="n">
+      <c r="L66" t="n">
         <v>0.229456384323641</v>
       </c>
-      <c r="L66" t="inlineStr">
+      <c r="M66" t="inlineStr">
         <is>
           <t>대기</t>
         </is>
       </c>
-      <c r="M66" t="n">
+      <c r="N66" t="n">
         <v>0.2091013824884793</v>
       </c>
-      <c r="N66" t="inlineStr">
+      <c r="O66" t="n">
+        <v>0.1393322664374149</v>
+      </c>
+      <c r="P66" t="inlineStr">
         <is>
           <t>공전궤도</t>
-        </is>
-      </c>
-      <c r="O66" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="P66" t="inlineStr">
-        <is>
-          <t>대기</t>
         </is>
       </c>
       <c r="Q66" t="n">
@@ -5557,11 +6131,22 @@
       </c>
       <c r="R66" t="inlineStr">
         <is>
+          <t>대기</t>
+        </is>
+      </c>
+      <c r="S66" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="T66" t="inlineStr">
+        <is>
           <t>지구형행성</t>
         </is>
       </c>
-      <c r="S66" t="n">
+      <c r="U66" t="n">
         <v>0.2142857142857143</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0.09302325581395347</v>
       </c>
     </row>
     <row r="67">
@@ -5594,41 +6179,39 @@
       <c r="G67" t="n">
         <v>0.01666666666666667</v>
       </c>
-      <c r="H67" t="inlineStr">
+      <c r="H67" t="n">
+        <v>0.006923076923076924</v>
+      </c>
+      <c r="I67" t="inlineStr">
         <is>
           <t>위성</t>
         </is>
       </c>
-      <c r="I67" t="n">
+      <c r="J67" t="n">
         <v>0.144</v>
       </c>
-      <c r="J67" t="inlineStr">
+      <c r="K67" t="inlineStr">
         <is>
           <t>내행성</t>
         </is>
       </c>
-      <c r="K67" t="n">
+      <c r="L67" t="n">
         <v>0.144</v>
       </c>
-      <c r="L67" t="inlineStr">
+      <c r="M67" t="inlineStr">
         <is>
           <t>고리</t>
         </is>
       </c>
-      <c r="M67" t="n">
+      <c r="N67" t="n">
         <v>0.098</v>
       </c>
-      <c r="N67" t="inlineStr">
+      <c r="O67" t="n">
+        <v>0.06981044326793315</v>
+      </c>
+      <c r="P67" t="inlineStr">
         <is>
           <t>천체분류</t>
-        </is>
-      </c>
-      <c r="O67" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="P67" t="inlineStr">
-        <is>
-          <t>외행성</t>
         </is>
       </c>
       <c r="Q67" t="n">
@@ -5636,11 +6219,22 @@
       </c>
       <c r="R67" t="inlineStr">
         <is>
+          <t>외행성</t>
+        </is>
+      </c>
+      <c r="S67" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="T67" t="inlineStr">
+        <is>
           <t>케플러법칙</t>
         </is>
       </c>
-      <c r="S67" t="n">
+      <c r="U67" t="n">
         <v>0.2</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0.0953846153846154</v>
       </c>
     </row>
     <row r="68">
@@ -5673,54 +6267,63 @@
       <c r="G68" t="n">
         <v>0.2279202279202279</v>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>행성</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="H68" t="n">
+        <v>0.04131054131054131</v>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>행성</t>
+        </is>
+      </c>
+      <c r="J68" t="n">
         <v>0.3713991769547325</v>
       </c>
-      <c r="J68" t="inlineStr">
+      <c r="K68" t="inlineStr">
         <is>
           <t>천체</t>
         </is>
       </c>
-      <c r="K68" t="n">
+      <c r="L68" t="n">
         <v>0.3342592592592593</v>
       </c>
-      <c r="L68" t="inlineStr">
+      <c r="M68" t="inlineStr">
         <is>
           <t>외행성</t>
         </is>
       </c>
-      <c r="M68" t="n">
+      <c r="N68" t="n">
         <v>0.3038720538720539</v>
       </c>
-      <c r="N68" t="inlineStr">
+      <c r="O68" t="n">
+        <v>0.1934116889512032</v>
+      </c>
+      <c r="P68" t="inlineStr">
         <is>
           <t>외행성</t>
         </is>
       </c>
-      <c r="O68" t="n">
+      <c r="Q68" t="n">
         <v>0.4444444444444444</v>
       </c>
-      <c r="P68" t="inlineStr">
-        <is>
-          <t>행성</t>
-        </is>
-      </c>
-      <c r="Q68" t="n">
-        <v>0.3703703703703703</v>
-      </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>천체</t>
+          <t>행성</t>
         </is>
       </c>
       <c r="S68" t="n">
         <v>0.3703703703703703</v>
       </c>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>천체</t>
+        </is>
+      </c>
+      <c r="U68" t="n">
+        <v>0.3703703703703703</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0.1375661375661375</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -5752,52 +6355,61 @@
       <c r="G69" t="n">
         <v>0.04761904761904762</v>
       </c>
-      <c r="H69" t="inlineStr">
+      <c r="H69" t="n">
+        <v>0.05952380952380952</v>
+      </c>
+      <c r="I69" t="inlineStr">
         <is>
           <t>케플러2법칙</t>
         </is>
       </c>
-      <c r="I69" t="n">
+      <c r="J69" t="n">
         <v>0.5142857142857142</v>
       </c>
-      <c r="J69" t="inlineStr">
+      <c r="K69" t="inlineStr">
         <is>
           <t>케플러1법칙</t>
         </is>
       </c>
-      <c r="K69" t="n">
+      <c r="L69" t="n">
         <v>0.4675324675324675</v>
       </c>
-      <c r="L69" t="inlineStr">
+      <c r="M69" t="inlineStr">
         <is>
           <t>케플러3법칙</t>
         </is>
       </c>
-      <c r="M69" t="n">
+      <c r="N69" t="n">
         <v>0.4675324675324675</v>
       </c>
-      <c r="N69" t="inlineStr">
+      <c r="O69" t="n">
+        <v>0.2987283549783549</v>
+      </c>
+      <c r="P69" t="inlineStr">
         <is>
           <t>케플러법칙</t>
         </is>
       </c>
-      <c r="O69" t="n">
+      <c r="Q69" t="n">
         <v>0.8571428571428571</v>
       </c>
-      <c r="P69" t="inlineStr">
+      <c r="R69" t="inlineStr">
         <is>
           <t>케플러2법칙</t>
         </is>
       </c>
-      <c r="Q69" t="n">
+      <c r="S69" t="n">
         <v>0.7142857142857142</v>
       </c>
-      <c r="R69" t="inlineStr">
+      <c r="T69" t="inlineStr">
         <is>
           <t>케플러1법칙</t>
         </is>
       </c>
-      <c r="S69" t="n">
+      <c r="U69" t="n">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="V69" t="n">
         <v>0.4285714285714285</v>
       </c>
     </row>
@@ -5831,54 +6443,63 @@
       <c r="G70" t="n">
         <v>0.02416666666666667</v>
       </c>
-      <c r="H70" t="inlineStr">
+      <c r="H70" t="n">
+        <v>0.005256410256410256</v>
+      </c>
+      <c r="I70" t="inlineStr">
         <is>
           <t>목성</t>
         </is>
       </c>
-      <c r="I70" t="n">
+      <c r="J70" t="n">
         <v>0.1781818181818182</v>
       </c>
-      <c r="J70" t="inlineStr">
+      <c r="K70" t="inlineStr">
         <is>
           <t>토성</t>
         </is>
       </c>
-      <c r="K70" t="n">
+      <c r="L70" t="n">
         <v>0.1781818181818182</v>
       </c>
-      <c r="L70" t="inlineStr">
+      <c r="M70" t="inlineStr">
         <is>
           <t>천왕성</t>
         </is>
       </c>
-      <c r="M70" t="n">
+      <c r="N70" t="n">
         <v>0.1781818181818182</v>
       </c>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>행성</t>
-        </is>
-      </c>
       <c r="O70" t="n">
+        <v>0.08863203463203462</v>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>행성</t>
+        </is>
+      </c>
+      <c r="Q70" t="n">
         <v>0.44</v>
       </c>
-      <c r="P70" t="inlineStr">
+      <c r="R70" t="inlineStr">
         <is>
           <t>천체</t>
-        </is>
-      </c>
-      <c r="Q70" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="R70" t="inlineStr">
-        <is>
-          <t>천체분류</t>
         </is>
       </c>
       <c r="S70" t="n">
         <v>0.24</v>
       </c>
+      <c r="T70" t="inlineStr">
+        <is>
+          <t>천체분류</t>
+        </is>
+      </c>
+      <c r="U70" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0.1261538461538462</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
@@ -5910,41 +6531,39 @@
       <c r="G71" t="n">
         <v>0.4087752525252525</v>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>행성</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="H71" t="n">
+        <v>0.08831885026737968</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>행성</t>
+        </is>
+      </c>
+      <c r="J71" t="n">
         <v>0.318560606060606</v>
       </c>
-      <c r="J71" t="inlineStr">
+      <c r="K71" t="inlineStr">
         <is>
           <t>천체</t>
         </is>
       </c>
-      <c r="K71" t="n">
+      <c r="L71" t="n">
         <v>0.3033910533910534</v>
       </c>
-      <c r="L71" t="inlineStr">
+      <c r="M71" t="inlineStr">
         <is>
           <t>행성구성</t>
         </is>
       </c>
-      <c r="M71" t="n">
+      <c r="N71" t="n">
         <v>0.2963354474982382</v>
       </c>
-      <c r="N71" t="inlineStr">
+      <c r="O71" t="n">
+        <v>0.2076643378384384</v>
+      </c>
+      <c r="P71" t="inlineStr">
         <is>
           <t>천체</t>
-        </is>
-      </c>
-      <c r="O71" t="n">
-        <v>0.303030303030303</v>
-      </c>
-      <c r="P71" t="inlineStr">
-        <is>
-          <t>행성조건</t>
         </is>
       </c>
       <c r="Q71" t="n">
@@ -5952,12 +6571,23 @@
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>지구형행성</t>
+          <t>행성조건</t>
         </is>
       </c>
       <c r="S71" t="n">
         <v>0.303030303030303</v>
       </c>
+      <c r="T71" t="inlineStr">
+        <is>
+          <t>지구형행성</t>
+        </is>
+      </c>
+      <c r="U71" t="n">
+        <v>0.303030303030303</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0.1158645276292335</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
@@ -5989,54 +6619,63 @@
       <c r="G72" t="n">
         <v>0.02584670231729055</v>
       </c>
-      <c r="H72" t="inlineStr">
+      <c r="H72" t="n">
+        <v>0.005474917239623122</v>
+      </c>
+      <c r="I72" t="inlineStr">
         <is>
           <t>위성</t>
         </is>
       </c>
-      <c r="I72" t="n">
+      <c r="J72" t="n">
         <v>0.06684491978609626</v>
       </c>
-      <c r="J72" t="inlineStr">
+      <c r="K72" t="inlineStr">
         <is>
           <t>자전주기</t>
         </is>
       </c>
-      <c r="K72" t="n">
+      <c r="L72" t="n">
         <v>0.06617647058823529</v>
       </c>
-      <c r="L72" t="inlineStr">
+      <c r="M72" t="inlineStr">
         <is>
           <t>파란색</t>
         </is>
       </c>
-      <c r="M72" t="n">
+      <c r="N72" t="n">
         <v>0.05042016806722689</v>
       </c>
-      <c r="N72" t="inlineStr">
+      <c r="O72" t="n">
+        <v>0.04409272800029103</v>
+      </c>
+      <c r="P72" t="inlineStr">
         <is>
           <t>케플러법칙</t>
         </is>
       </c>
-      <c r="O72" t="n">
+      <c r="Q72" t="n">
         <v>0.2058823529411765</v>
       </c>
-      <c r="P72" t="inlineStr">
+      <c r="R72" t="inlineStr">
         <is>
           <t>지구형행성</t>
-        </is>
-      </c>
-      <c r="Q72" t="n">
-        <v>0.1470588235294118</v>
-      </c>
-      <c r="R72" t="inlineStr">
-        <is>
-          <t>목성형행성</t>
         </is>
       </c>
       <c r="S72" t="n">
         <v>0.1470588235294118</v>
       </c>
+      <c r="T72" t="inlineStr">
+        <is>
+          <t>목성형행성</t>
+        </is>
+      </c>
+      <c r="U72" t="n">
+        <v>0.1470588235294118</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0.05882352941176468</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
@@ -6068,54 +6707,63 @@
       <c r="G73" t="n">
         <v>0.01720430107526882</v>
       </c>
-      <c r="H73" t="inlineStr">
+      <c r="H73" t="n">
+        <v>0.003797043010752688</v>
+      </c>
+      <c r="I73" t="inlineStr">
         <is>
           <t>목성</t>
         </is>
       </c>
-      <c r="I73" t="n">
+      <c r="J73" t="n">
         <v>0.1053763440860215</v>
       </c>
-      <c r="J73" t="inlineStr">
+      <c r="K73" t="inlineStr">
         <is>
           <t>토성</t>
         </is>
       </c>
-      <c r="K73" t="n">
+      <c r="L73" t="n">
         <v>0.1053763440860215</v>
       </c>
-      <c r="L73" t="inlineStr">
+      <c r="M73" t="inlineStr">
         <is>
           <t>천왕성</t>
         </is>
       </c>
-      <c r="M73" t="n">
+      <c r="N73" t="n">
         <v>0.1053763440860215</v>
       </c>
-      <c r="N73" t="inlineStr">
+      <c r="O73" t="n">
+        <v>0.05338200106345267</v>
+      </c>
+      <c r="P73" t="inlineStr">
         <is>
           <t>천체</t>
         </is>
       </c>
-      <c r="O73" t="n">
+      <c r="Q73" t="n">
         <v>0.2903225806451613</v>
       </c>
-      <c r="P73" t="inlineStr">
-        <is>
-          <t>행성</t>
-        </is>
-      </c>
-      <c r="Q73" t="n">
-        <v>0.1612903225806452</v>
-      </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>지구형행성</t>
+          <t>행성</t>
         </is>
       </c>
       <c r="S73" t="n">
         <v>0.1612903225806452</v>
       </c>
+      <c r="T73" t="inlineStr">
+        <is>
+          <t>지구형행성</t>
+        </is>
+      </c>
+      <c r="U73" t="n">
+        <v>0.1612903225806452</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0.08064516129032258</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
@@ -6147,53 +6795,62 @@
       <c r="G74" t="n">
         <v>0.06340579710144928</v>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>행성</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="H74" t="n">
+        <v>0.0403623188405797</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>행성</t>
+        </is>
+      </c>
+      <c r="J74" t="n">
         <v>0.5372023809523809</v>
       </c>
-      <c r="J74" t="inlineStr">
+      <c r="K74" t="inlineStr">
         <is>
           <t>천체</t>
         </is>
       </c>
-      <c r="K74" t="n">
+      <c r="L74" t="n">
         <v>0.4424019607843137</v>
       </c>
-      <c r="L74" t="inlineStr">
+      <c r="M74" t="inlineStr">
         <is>
           <t>금성</t>
         </is>
       </c>
-      <c r="M74" t="n">
+      <c r="N74" t="n">
         <v>0.3418560606060606</v>
       </c>
-      <c r="N74" t="inlineStr">
-        <is>
-          <t>행성</t>
-        </is>
-      </c>
       <c r="O74" t="n">
+        <v>0.2699428264884745</v>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>행성</t>
+        </is>
+      </c>
+      <c r="Q74" t="n">
         <v>0.9166666666666666</v>
       </c>
-      <c r="P74" t="inlineStr">
+      <c r="R74" t="inlineStr">
         <is>
           <t>천체</t>
         </is>
       </c>
-      <c r="Q74" t="n">
+      <c r="S74" t="n">
         <v>0.5</v>
       </c>
-      <c r="R74" t="inlineStr">
+      <c r="T74" t="inlineStr">
         <is>
           <t>케플러법칙</t>
         </is>
       </c>
-      <c r="S74" t="n">
+      <c r="U74" t="n">
         <v>0.3333333333333333</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="75">
@@ -6226,53 +6883,62 @@
       <c r="G75" t="n">
         <v>0.3227513227513227</v>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>행성</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="H75" t="n">
+        <v>0.07307060755336615</v>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>행성</t>
+        </is>
+      </c>
+      <c r="J75" t="n">
         <v>0.374025974025974</v>
       </c>
-      <c r="J75" t="inlineStr">
+      <c r="K75" t="inlineStr">
         <is>
           <t>지구형행성</t>
         </is>
       </c>
-      <c r="K75" t="n">
+      <c r="L75" t="n">
         <v>0.3673469387755102</v>
       </c>
-      <c r="L75" t="inlineStr">
+      <c r="M75" t="inlineStr">
         <is>
           <t>천체</t>
         </is>
       </c>
-      <c r="M75" t="n">
+      <c r="N75" t="n">
         <v>0.3116883116883117</v>
       </c>
-      <c r="N75" t="inlineStr">
+      <c r="O75" t="n">
+        <v>0.219741545853762</v>
+      </c>
+      <c r="P75" t="inlineStr">
         <is>
           <t>천체</t>
         </is>
       </c>
-      <c r="O75" t="n">
+      <c r="Q75" t="n">
         <v>0.4285714285714285</v>
       </c>
-      <c r="P75" t="inlineStr">
+      <c r="R75" t="inlineStr">
         <is>
           <t>지구형행성</t>
         </is>
       </c>
-      <c r="Q75" t="n">
+      <c r="S75" t="n">
         <v>0.3571428571428571</v>
       </c>
-      <c r="R75" t="inlineStr">
+      <c r="T75" t="inlineStr">
         <is>
           <t>수성</t>
         </is>
       </c>
-      <c r="S75" t="n">
+      <c r="U75" t="n">
         <v>0.2857142857142857</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0.1330049261083744</v>
       </c>
     </row>
     <row r="76">
@@ -6305,54 +6971,63 @@
       <c r="G76" t="n">
         <v>0.4137931034482759</v>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>행성</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="H76" t="n">
+        <v>0.09532814238042268</v>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>행성</t>
+        </is>
+      </c>
+      <c r="J76" t="n">
         <v>0.378743961352657</v>
       </c>
-      <c r="J76" t="inlineStr">
+      <c r="K76" t="inlineStr">
         <is>
           <t>천체</t>
         </is>
       </c>
-      <c r="K76" t="n">
+      <c r="L76" t="n">
         <v>0.362962962962963</v>
       </c>
-      <c r="L76" t="inlineStr">
+      <c r="M76" t="inlineStr">
         <is>
           <t>천문학</t>
         </is>
       </c>
-      <c r="M76" t="n">
+      <c r="N76" t="n">
         <v>0.3350427350427351</v>
       </c>
-      <c r="N76" t="inlineStr">
+      <c r="O76" t="n">
+        <v>0.2464971476415523</v>
+      </c>
+      <c r="P76" t="inlineStr">
         <is>
           <t>천체</t>
         </is>
       </c>
-      <c r="O76" t="n">
+      <c r="Q76" t="n">
         <v>0.3666666666666666</v>
       </c>
-      <c r="P76" t="inlineStr">
+      <c r="R76" t="inlineStr">
         <is>
           <t>목성형행성</t>
-        </is>
-      </c>
-      <c r="Q76" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="R76" t="inlineStr">
-        <is>
-          <t>지구형행성</t>
         </is>
       </c>
       <c r="S76" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="T76" t="inlineStr">
+        <is>
+          <t>지구형행성</t>
+        </is>
+      </c>
+      <c r="U76" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0.1333333333333334</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
@@ -6384,41 +7059,39 @@
       <c r="G77" t="n">
         <v>0.0119047619047619</v>
       </c>
-      <c r="H77" t="inlineStr">
+      <c r="H77" t="n">
+        <v>0.002873563218390805</v>
+      </c>
+      <c r="I77" t="inlineStr">
         <is>
           <t>거대행성</t>
         </is>
       </c>
-      <c r="I77" t="n">
+      <c r="J77" t="n">
         <v>0.08035714285714285</v>
       </c>
-      <c r="J77" t="inlineStr">
+      <c r="K77" t="inlineStr">
         <is>
           <t>케플러법칙</t>
         </is>
       </c>
-      <c r="K77" t="n">
+      <c r="L77" t="n">
         <v>0.07142857142857142</v>
       </c>
-      <c r="L77" t="inlineStr">
+      <c r="M77" t="inlineStr">
         <is>
           <t>목성</t>
         </is>
       </c>
-      <c r="M77" t="n">
+      <c r="N77" t="n">
         <v>0.07142857142857142</v>
       </c>
-      <c r="N77" t="inlineStr">
+      <c r="O77" t="n">
+        <v>0.05026788345753862</v>
+      </c>
+      <c r="P77" t="inlineStr">
         <is>
           <t>태양계</t>
-        </is>
-      </c>
-      <c r="O77" t="n">
-        <v>0.2142857142857143</v>
-      </c>
-      <c r="P77" t="inlineStr">
-        <is>
-          <t>케플러법칙</t>
         </is>
       </c>
       <c r="Q77" t="n">
@@ -6426,11 +7099,22 @@
       </c>
       <c r="R77" t="inlineStr">
         <is>
+          <t>케플러법칙</t>
+        </is>
+      </c>
+      <c r="S77" t="n">
+        <v>0.2142857142857143</v>
+      </c>
+      <c r="T77" t="inlineStr">
+        <is>
           <t>지구형행성</t>
         </is>
       </c>
-      <c r="S77" t="n">
+      <c r="U77" t="n">
         <v>0.1785714285714285</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0.07142857142857142</v>
       </c>
     </row>
     <row r="78">
@@ -6463,41 +7147,39 @@
       <c r="G78" t="n">
         <v>0.0130718954248366</v>
       </c>
-      <c r="H78" t="inlineStr">
+      <c r="H78" t="n">
+        <v>0.00412796697626419</v>
+      </c>
+      <c r="I78" t="inlineStr">
         <is>
           <t>자기장X</t>
         </is>
       </c>
-      <c r="I78" t="n">
+      <c r="J78" t="n">
         <v>0.154320987654321</v>
       </c>
-      <c r="J78" t="inlineStr">
+      <c r="K78" t="inlineStr">
         <is>
           <t>역행운동</t>
         </is>
       </c>
-      <c r="K78" t="n">
+      <c r="L78" t="n">
         <v>0.08333333333333333</v>
       </c>
-      <c r="L78" t="inlineStr">
+      <c r="M78" t="inlineStr">
         <is>
           <t>지구온난화</t>
         </is>
       </c>
-      <c r="M78" t="n">
+      <c r="N78" t="n">
         <v>0.08333333333333333</v>
       </c>
-      <c r="N78" t="inlineStr">
+      <c r="O78" t="n">
+        <v>0.07293697205977906</v>
+      </c>
+      <c r="P78" t="inlineStr">
         <is>
           <t>목성형행성</t>
-        </is>
-      </c>
-      <c r="O78" t="n">
-        <v>0.2777777777777778</v>
-      </c>
-      <c r="P78" t="inlineStr">
-        <is>
-          <t>지구형행성</t>
         </is>
       </c>
       <c r="Q78" t="n">
@@ -6505,11 +7187,22 @@
       </c>
       <c r="R78" t="inlineStr">
         <is>
+          <t>지구형행성</t>
+        </is>
+      </c>
+      <c r="S78" t="n">
+        <v>0.2777777777777778</v>
+      </c>
+      <c r="T78" t="inlineStr">
+        <is>
           <t>케플러법칙</t>
         </is>
       </c>
-      <c r="S78" t="n">
+      <c r="U78" t="n">
         <v>0.2222222222222222</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="79">
@@ -6542,54 +7235,63 @@
       <c r="G79" t="n">
         <v>0.1323529411764706</v>
       </c>
-      <c r="H79" t="inlineStr">
+      <c r="H79" t="n">
+        <v>0.08427932576539388</v>
+      </c>
+      <c r="I79" t="inlineStr">
         <is>
           <t>태양계</t>
         </is>
       </c>
-      <c r="I79" t="n">
+      <c r="J79" t="n">
         <v>0.72</v>
       </c>
-      <c r="J79" t="inlineStr">
+      <c r="K79" t="inlineStr">
         <is>
           <t>케플러법칙</t>
         </is>
       </c>
-      <c r="K79" t="n">
+      <c r="L79" t="n">
         <v>0.5</v>
       </c>
-      <c r="L79" t="inlineStr">
+      <c r="M79" t="inlineStr">
         <is>
           <t>지구</t>
         </is>
       </c>
-      <c r="M79" t="n">
+      <c r="N79" t="n">
         <v>0.4736842105263158</v>
       </c>
-      <c r="N79" t="inlineStr">
+      <c r="O79" t="n">
+        <v>0.4265512568331096</v>
+      </c>
+      <c r="P79" t="inlineStr">
         <is>
           <t>태양계</t>
         </is>
       </c>
-      <c r="O79" t="n">
+      <c r="Q79" t="n">
         <v>1.222222222222222</v>
       </c>
-      <c r="P79" t="inlineStr">
+      <c r="R79" t="inlineStr">
         <is>
           <t>케플러법칙</t>
-        </is>
-      </c>
-      <c r="Q79" t="n">
-        <v>0.4444444444444444</v>
-      </c>
-      <c r="R79" t="inlineStr">
-        <is>
-          <t>지구형행성</t>
         </is>
       </c>
       <c r="S79" t="n">
         <v>0.4444444444444444</v>
       </c>
+      <c r="T79" t="inlineStr">
+        <is>
+          <t>지구형행성</t>
+        </is>
+      </c>
+      <c r="U79" t="n">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0.2807017543859648</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
@@ -6621,53 +7323,62 @@
       <c r="G80" t="n">
         <v>0.1666666666666667</v>
       </c>
-      <c r="H80" t="inlineStr">
+      <c r="H80" t="n">
+        <v>0.04448717948717949</v>
+      </c>
+      <c r="I80" t="inlineStr">
         <is>
           <t>지구형행성</t>
         </is>
       </c>
-      <c r="I80" t="n">
+      <c r="J80" t="n">
         <v>0.3702857142857142</v>
       </c>
-      <c r="J80" t="inlineStr">
+      <c r="K80" t="inlineStr">
         <is>
           <t>금성</t>
         </is>
       </c>
-      <c r="K80" t="n">
+      <c r="L80" t="n">
         <v>0.2817391304347826</v>
       </c>
-      <c r="L80" t="inlineStr">
+      <c r="M80" t="inlineStr">
         <is>
           <t>지구</t>
         </is>
       </c>
-      <c r="M80" t="n">
+      <c r="N80" t="n">
         <v>0.2817391304347826</v>
       </c>
-      <c r="N80" t="inlineStr">
+      <c r="O80" t="n">
+        <v>0.1917128138435888</v>
+      </c>
+      <c r="P80" t="inlineStr">
         <is>
           <t>케플러법칙</t>
         </is>
       </c>
-      <c r="O80" t="n">
+      <c r="Q80" t="n">
         <v>0.4</v>
       </c>
-      <c r="P80" t="inlineStr">
+      <c r="R80" t="inlineStr">
         <is>
           <t>지구형행성</t>
         </is>
       </c>
-      <c r="Q80" t="n">
+      <c r="S80" t="n">
         <v>0.36</v>
       </c>
-      <c r="R80" t="inlineStr">
+      <c r="T80" t="inlineStr">
         <is>
           <t>금성</t>
         </is>
       </c>
-      <c r="S80" t="n">
+      <c r="U80" t="n">
         <v>0.32</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0.1538461538461539</v>
       </c>
     </row>
     <row r="81">
@@ -6700,41 +7411,39 @@
       <c r="G81" t="n">
         <v>0.1522988505747127</v>
       </c>
-      <c r="H81" t="inlineStr">
+      <c r="H81" t="n">
+        <v>0.02762328513162773</v>
+      </c>
+      <c r="I81" t="inlineStr">
         <is>
           <t>태양계행성</t>
         </is>
       </c>
-      <c r="I81" t="n">
+      <c r="J81" t="n">
         <v>0.2285714285714286</v>
       </c>
-      <c r="J81" t="inlineStr">
+      <c r="K81" t="inlineStr">
         <is>
           <t>거대행성</t>
         </is>
       </c>
-      <c r="K81" t="n">
+      <c r="L81" t="n">
         <v>0.2181818181818182</v>
       </c>
-      <c r="L81" t="inlineStr">
+      <c r="M81" t="inlineStr">
         <is>
           <t>지구형행성</t>
         </is>
       </c>
-      <c r="M81" t="n">
+      <c r="N81" t="n">
         <v>0.2181818181818182</v>
       </c>
-      <c r="N81" t="inlineStr">
+      <c r="O81" t="n">
+        <v>0.1543153231372026</v>
+      </c>
+      <c r="P81" t="inlineStr">
         <is>
           <t>거대행성</t>
-        </is>
-      </c>
-      <c r="O81" t="n">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="P81" t="inlineStr">
-        <is>
-          <t>지구형행성</t>
         </is>
       </c>
       <c r="Q81" t="n">
@@ -6742,11 +7451,22 @@
       </c>
       <c r="R81" t="inlineStr">
         <is>
+          <t>지구형행성</t>
+        </is>
+      </c>
+      <c r="S81" t="n">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="T81" t="inlineStr">
+        <is>
           <t>태양계행성</t>
         </is>
       </c>
-      <c r="S81" t="n">
+      <c r="U81" t="n">
         <v>0.2</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0.09462365591397848</v>
       </c>
     </row>
     <row r="82">
@@ -6779,54 +7499,63 @@
       <c r="G82" t="n">
         <v>0.01731601731601732</v>
       </c>
-      <c r="H82" t="inlineStr">
+      <c r="H82" t="n">
+        <v>0.002446828533785056</v>
+      </c>
+      <c r="I82" t="inlineStr">
         <is>
           <t>수성</t>
         </is>
       </c>
-      <c r="I82" t="n">
+      <c r="J82" t="n">
         <v>0.06818181818181818</v>
       </c>
-      <c r="J82" t="inlineStr">
+      <c r="K82" t="inlineStr">
         <is>
           <t>금성</t>
         </is>
       </c>
-      <c r="K82" t="n">
+      <c r="L82" t="n">
         <v>0.06818181818181818</v>
       </c>
-      <c r="L82" t="inlineStr">
+      <c r="M82" t="inlineStr">
         <is>
           <t>지구</t>
         </is>
       </c>
-      <c r="M82" t="n">
+      <c r="N82" t="n">
         <v>0.06818181818181818</v>
       </c>
-      <c r="N82" t="inlineStr">
+      <c r="O82" t="n">
+        <v>0.0507246376811594</v>
+      </c>
+      <c r="P82" t="inlineStr">
         <is>
           <t>천체</t>
         </is>
       </c>
-      <c r="O82" t="n">
+      <c r="Q82" t="n">
         <v>0.3636363636363636</v>
       </c>
-      <c r="P82" t="inlineStr">
+      <c r="R82" t="inlineStr">
         <is>
           <t>내행성</t>
-        </is>
-      </c>
-      <c r="Q82" t="n">
-        <v>0.2272727272727273</v>
-      </c>
-      <c r="R82" t="inlineStr">
-        <is>
-          <t>외행성</t>
         </is>
       </c>
       <c r="S82" t="n">
         <v>0.2272727272727273</v>
       </c>
+      <c r="T82" t="inlineStr">
+        <is>
+          <t>외행성</t>
+        </is>
+      </c>
+      <c r="U82" t="n">
+        <v>0.2272727272727273</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0.08300395256916994</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
@@ -6858,53 +7587,62 @@
       <c r="G83" t="n">
         <v>0.04102564102564103</v>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>행성</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
+      <c r="H83" t="n">
+        <v>0.01649468417761101</v>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>행성</t>
+        </is>
+      </c>
+      <c r="J83" t="n">
         <v>0.2782608695652174</v>
       </c>
-      <c r="J83" t="inlineStr">
+      <c r="K83" t="inlineStr">
         <is>
           <t>천체</t>
         </is>
       </c>
-      <c r="K83" t="n">
+      <c r="L83" t="n">
         <v>0.2666666666666667</v>
       </c>
-      <c r="L83" t="inlineStr">
+      <c r="M83" t="inlineStr">
         <is>
           <t>위성</t>
         </is>
       </c>
-      <c r="M83" t="n">
+      <c r="N83" t="n">
         <v>0.172972972972973</v>
       </c>
-      <c r="N83" t="inlineStr">
-        <is>
-          <t>행성</t>
-        </is>
-      </c>
       <c r="O83" t="n">
+        <v>0.141966525446933</v>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>행성</t>
+        </is>
+      </c>
+      <c r="Q83" t="n">
         <v>0.45</v>
       </c>
-      <c r="P83" t="inlineStr">
+      <c r="R83" t="inlineStr">
         <is>
           <t>천체</t>
         </is>
       </c>
-      <c r="Q83" t="n">
+      <c r="S83" t="n">
         <v>0.4</v>
       </c>
-      <c r="R83" t="inlineStr">
+      <c r="T83" t="inlineStr">
         <is>
           <t>해왕성</t>
         </is>
       </c>
-      <c r="S83" t="n">
+      <c r="U83" t="n">
         <v>0.175</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0.08048780487804878</v>
       </c>
     </row>
     <row r="84">
@@ -6937,54 +7675,63 @@
       <c r="G84" t="n">
         <v>0.02865612648221344</v>
       </c>
-      <c r="H84" t="inlineStr">
+      <c r="H84" t="n">
+        <v>0.01399868247694334</v>
+      </c>
+      <c r="I84" t="inlineStr">
         <is>
           <t>해왕성</t>
         </is>
       </c>
-      <c r="I84" t="n">
+      <c r="J84" t="n">
         <v>0.244927536231884</v>
       </c>
-      <c r="J84" t="inlineStr">
+      <c r="K84" t="inlineStr">
         <is>
           <t>천왕성</t>
         </is>
       </c>
-      <c r="K84" t="n">
+      <c r="L84" t="n">
         <v>0.22266139657444</v>
       </c>
-      <c r="L84" t="inlineStr">
+      <c r="M84" t="inlineStr">
         <is>
           <t>토성</t>
         </is>
       </c>
-      <c r="M84" t="n">
+      <c r="N84" t="n">
         <v>0.1985898942420682</v>
       </c>
-      <c r="N84" t="inlineStr">
+      <c r="O84" t="n">
+        <v>0.1078033814446858</v>
+      </c>
+      <c r="P84" t="inlineStr">
         <is>
           <t>암석형</t>
         </is>
       </c>
-      <c r="O84" t="n">
+      <c r="Q84" t="n">
         <v>0.3043478260869565</v>
       </c>
-      <c r="P84" t="inlineStr">
+      <c r="R84" t="inlineStr">
         <is>
           <t>거대행성</t>
-        </is>
-      </c>
-      <c r="Q84" t="n">
-        <v>0.2173913043478261</v>
-      </c>
-      <c r="R84" t="inlineStr">
-        <is>
-          <t>토성</t>
         </is>
       </c>
       <c r="S84" t="n">
         <v>0.2173913043478261</v>
       </c>
+      <c r="T84" t="inlineStr">
+        <is>
+          <t>토성</t>
+        </is>
+      </c>
+      <c r="U84" t="n">
+        <v>0.2173913043478261</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0.1413043478260869</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
@@ -7016,54 +7763,63 @@
       <c r="G85" t="n">
         <v>0.1393280632411067</v>
       </c>
-      <c r="H85" t="inlineStr">
+      <c r="H85" t="n">
+        <v>0.02733860342555995</v>
+      </c>
+      <c r="I85" t="inlineStr">
         <is>
           <t>거대행성</t>
         </is>
       </c>
-      <c r="I85" t="n">
+      <c r="J85" t="n">
         <v>0.2367149758454107</v>
       </c>
-      <c r="J85" t="inlineStr">
+      <c r="K85" t="inlineStr">
         <is>
           <t>위성</t>
         </is>
       </c>
-      <c r="K85" t="n">
+      <c r="L85" t="n">
         <v>0.1760869565217391</v>
       </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>행성</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>행성</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>0.1638795986622074</v>
       </c>
-      <c r="N85" t="inlineStr">
+      <c r="O85" t="n">
+        <v>0.1206659304340298</v>
+      </c>
+      <c r="P85" t="inlineStr">
         <is>
           <t>거대행성</t>
         </is>
       </c>
-      <c r="O85" t="n">
+      <c r="Q85" t="n">
         <v>0.4347826086956522</v>
       </c>
-      <c r="P85" t="inlineStr">
+      <c r="R85" t="inlineStr">
         <is>
           <t>지구형행성</t>
-        </is>
-      </c>
-      <c r="Q85" t="n">
-        <v>0.2608695652173913</v>
-      </c>
-      <c r="R85" t="inlineStr">
-        <is>
-          <t>케플러법칙</t>
         </is>
       </c>
       <c r="S85" t="n">
         <v>0.2608695652173913</v>
       </c>
+      <c r="T85" t="inlineStr">
+        <is>
+          <t>케플러법칙</t>
+        </is>
+      </c>
+      <c r="U85" t="n">
+        <v>0.2608695652173913</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0.1231884057971014</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
@@ -7095,53 +7851,62 @@
       <c r="G86" t="n">
         <v>0.108695652173913</v>
       </c>
-      <c r="H86" t="inlineStr">
+      <c r="H86" t="n">
+        <v>0.02420289855072464</v>
+      </c>
+      <c r="I86" t="inlineStr">
         <is>
           <t>케플러1법칙</t>
         </is>
       </c>
-      <c r="I86" t="n">
+      <c r="J86" t="n">
         <v>0.1985294117647059</v>
       </c>
-      <c r="J86" t="inlineStr">
+      <c r="K86" t="inlineStr">
         <is>
           <t>케플러법칙</t>
         </is>
       </c>
-      <c r="K86" t="n">
+      <c r="L86" t="n">
         <v>0.1875</v>
       </c>
-      <c r="L86" t="inlineStr">
+      <c r="M86" t="inlineStr">
         <is>
           <t>천문학</t>
         </is>
       </c>
-      <c r="M86" t="n">
+      <c r="N86" t="n">
         <v>0.1666666666666667</v>
       </c>
-      <c r="N86" t="inlineStr">
+      <c r="O86" t="n">
+        <v>0.1176036718483572</v>
+      </c>
+      <c r="P86" t="inlineStr">
         <is>
           <t>케플러법칙</t>
         </is>
       </c>
-      <c r="O86" t="n">
+      <c r="Q86" t="n">
         <v>0.4583333333333333</v>
       </c>
-      <c r="P86" t="inlineStr">
+      <c r="R86" t="inlineStr">
         <is>
           <t>천문학</t>
         </is>
       </c>
-      <c r="Q86" t="n">
+      <c r="S86" t="n">
         <v>0.2916666666666666</v>
       </c>
-      <c r="R86" t="inlineStr">
+      <c r="T86" t="inlineStr">
         <is>
           <t>지구형행성</t>
         </is>
       </c>
-      <c r="S86" t="n">
+      <c r="U86" t="n">
         <v>0.2083333333333333</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0.1066666666666667</v>
       </c>
     </row>
     <row r="87">
@@ -7174,41 +7939,39 @@
       <c r="G87" t="n">
         <v>0.007122507122507123</v>
       </c>
-      <c r="H87" t="inlineStr">
+      <c r="H87" t="n">
+        <v>0.001984126984126984</v>
+      </c>
+      <c r="I87" t="inlineStr">
         <is>
           <t>자기장X</t>
         </is>
       </c>
-      <c r="I87" t="n">
+      <c r="J87" t="n">
         <v>0.08465608465608465</v>
       </c>
-      <c r="J87" t="inlineStr">
+      <c r="K87" t="inlineStr">
         <is>
           <t>케플러법칙예외</t>
         </is>
       </c>
-      <c r="K87" t="n">
+      <c r="L87" t="n">
         <v>0.05555555555555555</v>
       </c>
-      <c r="L87" t="inlineStr">
+      <c r="M87" t="inlineStr">
         <is>
           <t>대기X</t>
         </is>
       </c>
-      <c r="M87" t="n">
+      <c r="N87" t="n">
         <v>0.05555555555555555</v>
       </c>
-      <c r="N87" t="inlineStr">
+      <c r="O87" t="n">
+        <v>0.04601284958427816</v>
+      </c>
+      <c r="P87" t="inlineStr">
         <is>
           <t>지구형행성</t>
-        </is>
-      </c>
-      <c r="O87" t="n">
-        <v>0.1851851851851852</v>
-      </c>
-      <c r="P87" t="inlineStr">
-        <is>
-          <t>천체모형</t>
         </is>
       </c>
       <c r="Q87" t="n">
@@ -7216,11 +7979,22 @@
       </c>
       <c r="R87" t="inlineStr">
         <is>
+          <t>천체모형</t>
+        </is>
+      </c>
+      <c r="S87" t="n">
+        <v>0.1851851851851852</v>
+      </c>
+      <c r="T87" t="inlineStr">
+        <is>
           <t>수성</t>
         </is>
       </c>
-      <c r="S87" t="n">
+      <c r="U87" t="n">
         <v>0.1481481481481481</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0.07142857142857142</v>
       </c>
     </row>
     <row r="88">
@@ -7253,41 +8027,39 @@
       <c r="G88" t="n">
         <v>0.164367816091954</v>
       </c>
-      <c r="H88" t="inlineStr">
+      <c r="H88" t="n">
+        <v>0.0378197997775306</v>
+      </c>
+      <c r="I88" t="inlineStr">
         <is>
           <t>목성형행성</t>
         </is>
       </c>
-      <c r="I88" t="n">
+      <c r="J88" t="n">
         <v>0.2205882352941176</v>
       </c>
-      <c r="J88" t="inlineStr">
+      <c r="K88" t="inlineStr">
         <is>
           <t>얼음</t>
         </is>
       </c>
-      <c r="K88" t="n">
+      <c r="L88" t="n">
         <v>0.2083333333333333</v>
       </c>
-      <c r="L88" t="inlineStr">
+      <c r="M88" t="inlineStr">
         <is>
           <t>혜성</t>
         </is>
       </c>
-      <c r="M88" t="n">
+      <c r="N88" t="n">
         <v>0.1973684210526316</v>
       </c>
-      <c r="N88" t="inlineStr">
+      <c r="O88" t="n">
+        <v>0.1300843069253529</v>
+      </c>
+      <c r="P88" t="inlineStr">
         <is>
           <t>태양계</t>
-        </is>
-      </c>
-      <c r="O88" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="P88" t="inlineStr">
-        <is>
-          <t>지구형행성</t>
         </is>
       </c>
       <c r="Q88" t="n">
@@ -7295,11 +8067,22 @@
       </c>
       <c r="R88" t="inlineStr">
         <is>
+          <t>지구형행성</t>
+        </is>
+      </c>
+      <c r="S88" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="T88" t="inlineStr">
+        <is>
           <t>얼음</t>
         </is>
       </c>
-      <c r="S88" t="n">
+      <c r="U88" t="n">
         <v>0.2666666666666667</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0.1118279569892474</v>
       </c>
     </row>
     <row r="89">
@@ -7332,54 +8115,63 @@
       <c r="G89" t="n">
         <v>0</v>
       </c>
-      <c r="H89" t="inlineStr">
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr">
         <is>
           <t>지구형행성</t>
         </is>
       </c>
-      <c r="I89" t="n">
+      <c r="J89" t="n">
         <v>0.1</v>
       </c>
-      <c r="J89" t="inlineStr">
+      <c r="K89" t="inlineStr">
         <is>
           <t>가스형행성</t>
         </is>
       </c>
-      <c r="K89" t="n">
+      <c r="L89" t="n">
         <v>0.1</v>
       </c>
-      <c r="L89" t="inlineStr">
+      <c r="M89" t="inlineStr">
         <is>
           <t>수성</t>
         </is>
       </c>
-      <c r="M89" t="n">
+      <c r="N89" t="n">
         <v>0.1</v>
       </c>
-      <c r="N89" t="inlineStr">
+      <c r="O89" t="n">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="P89" t="inlineStr">
         <is>
           <t>케플러법칙</t>
         </is>
       </c>
-      <c r="O89" t="n">
+      <c r="Q89" t="n">
         <v>1</v>
       </c>
-      <c r="P89" t="inlineStr">
+      <c r="R89" t="inlineStr">
         <is>
           <t>지구형행성</t>
-        </is>
-      </c>
-      <c r="Q89" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="R89" t="inlineStr">
-        <is>
-          <t>가스형행성</t>
         </is>
       </c>
       <c r="S89" t="n">
         <v>0.1</v>
       </c>
+      <c r="T89" t="inlineStr">
+        <is>
+          <t>가스형행성</t>
+        </is>
+      </c>
+      <c r="U89" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0.1818181818181819</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
@@ -7411,53 +8203,62 @@
       <c r="G90" t="n">
         <v>0.03636363636363636</v>
       </c>
-      <c r="H90" t="inlineStr">
+      <c r="H90" t="n">
+        <v>0.01515151515151515</v>
+      </c>
+      <c r="I90" t="inlineStr">
         <is>
           <t>케플러법칙</t>
         </is>
       </c>
-      <c r="I90" t="n">
+      <c r="J90" t="n">
         <v>0.3636363636363636</v>
       </c>
-      <c r="J90" t="inlineStr">
+      <c r="K90" t="inlineStr">
         <is>
           <t>케플러1법칙</t>
         </is>
       </c>
-      <c r="K90" t="n">
+      <c r="L90" t="n">
         <v>0.2077922077922078</v>
       </c>
-      <c r="L90" t="inlineStr">
+      <c r="M90" t="inlineStr">
         <is>
           <t>케플러2법칙</t>
         </is>
       </c>
-      <c r="M90" t="n">
+      <c r="N90" t="n">
         <v>0.2077922077922078</v>
       </c>
-      <c r="N90" t="inlineStr">
+      <c r="O90" t="n">
+        <v>0.1586399711399712</v>
+      </c>
+      <c r="P90" t="inlineStr">
         <is>
           <t>케플러법칙</t>
         </is>
       </c>
-      <c r="O90" t="n">
+      <c r="Q90" t="n">
         <v>0.6363636363636364</v>
       </c>
-      <c r="P90" t="inlineStr">
+      <c r="R90" t="inlineStr">
         <is>
           <t>태양계</t>
         </is>
       </c>
-      <c r="Q90" t="n">
+      <c r="S90" t="n">
         <v>0.3636363636363636</v>
       </c>
-      <c r="R90" t="inlineStr">
-        <is>
-          <t>행성</t>
-        </is>
-      </c>
-      <c r="S90" t="n">
+      <c r="T90" t="inlineStr">
+        <is>
+          <t>행성</t>
+        </is>
+      </c>
+      <c r="U90" t="n">
         <v>0.2727272727272727</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0.2272727272727272</v>
       </c>
     </row>
     <row r="91">
@@ -7490,54 +8291,63 @@
       <c r="G91" t="n">
         <v>0.04761904761904762</v>
       </c>
-      <c r="H91" t="inlineStr">
+      <c r="H91" t="n">
+        <v>0.01525974025974026</v>
+      </c>
+      <c r="I91" t="inlineStr">
         <is>
           <t>태양</t>
         </is>
       </c>
-      <c r="I91" t="n">
+      <c r="J91" t="n">
         <v>0.1523809523809524</v>
       </c>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>행성</t>
-        </is>
-      </c>
-      <c r="K91" t="n">
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>행성</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
         <v>0.1523809523809524</v>
       </c>
-      <c r="L91" t="inlineStr">
+      <c r="M91" t="inlineStr">
         <is>
           <t>지구형행성</t>
         </is>
       </c>
-      <c r="M91" t="n">
+      <c r="N91" t="n">
         <v>0.119047619047619</v>
       </c>
-      <c r="N91" t="inlineStr">
-        <is>
-          <t>행성</t>
-        </is>
-      </c>
       <c r="O91" t="n">
+        <v>0.09624747233442886</v>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>행성</t>
+        </is>
+      </c>
+      <c r="Q91" t="n">
         <v>0.3333333333333333</v>
       </c>
-      <c r="P91" t="inlineStr">
+      <c r="R91" t="inlineStr">
         <is>
           <t>천체</t>
-        </is>
-      </c>
-      <c r="Q91" t="n">
-        <v>0.2380952380952381</v>
-      </c>
-      <c r="R91" t="inlineStr">
-        <is>
-          <t>케플러법칙</t>
         </is>
       </c>
       <c r="S91" t="n">
         <v>0.2380952380952381</v>
       </c>
+      <c r="T91" t="inlineStr">
+        <is>
+          <t>케플러법칙</t>
+        </is>
+      </c>
+      <c r="U91" t="n">
+        <v>0.2380952380952381</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0.1082251082251082</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
@@ -7569,53 +8379,62 @@
       <c r="G92" t="n">
         <v>0.02538461538461538</v>
       </c>
-      <c r="H92" t="inlineStr">
+      <c r="H92" t="n">
+        <v>0.006153846153846154</v>
+      </c>
+      <c r="I92" t="inlineStr">
         <is>
           <t>위성X</t>
         </is>
       </c>
-      <c r="I92" t="n">
+      <c r="J92" t="n">
         <v>0.08741258741258741</v>
       </c>
-      <c r="J92" t="inlineStr">
+      <c r="K92" t="inlineStr">
         <is>
           <t>분화구</t>
         </is>
       </c>
-      <c r="K92" t="n">
+      <c r="L92" t="n">
         <v>0.06153846153846154</v>
       </c>
-      <c r="L92" t="inlineStr">
+      <c r="M92" t="inlineStr">
         <is>
           <t>밀도</t>
         </is>
       </c>
-      <c r="M92" t="n">
+      <c r="N92" t="n">
         <v>0.06153846153846154</v>
       </c>
-      <c r="N92" t="inlineStr">
+      <c r="O92" t="n">
+        <v>0.05836570836570837</v>
+      </c>
+      <c r="P92" t="inlineStr">
         <is>
           <t>금성</t>
         </is>
       </c>
-      <c r="O92" t="n">
+      <c r="Q92" t="n">
         <v>0.2692307692307693</v>
       </c>
-      <c r="P92" t="inlineStr">
+      <c r="R92" t="inlineStr">
         <is>
           <t>지구형행성</t>
         </is>
       </c>
-      <c r="Q92" t="n">
+      <c r="S92" t="n">
         <v>0.1923076923076923</v>
       </c>
-      <c r="R92" t="inlineStr">
-        <is>
-          <t>행성</t>
-        </is>
-      </c>
-      <c r="S92" t="n">
+      <c r="T92" t="inlineStr">
+        <is>
+          <t>행성</t>
+        </is>
+      </c>
+      <c r="U92" t="n">
         <v>0.1538461538461539</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0.07977207977207976</v>
       </c>
     </row>
     <row r="93">
@@ -7648,53 +8467,62 @@
       <c r="G93" t="n">
         <v>0.05</v>
       </c>
-      <c r="H93" t="inlineStr">
+      <c r="H93" t="n">
+        <v>0.01421568627450981</v>
+      </c>
+      <c r="I93" t="inlineStr">
         <is>
           <t>지구형행성</t>
         </is>
       </c>
-      <c r="I93" t="n">
+      <c r="J93" t="n">
         <v>0.140625</v>
       </c>
-      <c r="J93" t="inlineStr">
+      <c r="K93" t="inlineStr">
         <is>
           <t>거대행성</t>
         </is>
       </c>
-      <c r="K93" t="n">
+      <c r="L93" t="n">
         <v>0.140625</v>
       </c>
-      <c r="L93" t="inlineStr">
+      <c r="M93" t="inlineStr">
         <is>
           <t>수성</t>
         </is>
       </c>
-      <c r="M93" t="n">
+      <c r="N93" t="n">
         <v>0.125</v>
       </c>
-      <c r="N93" t="inlineStr">
+      <c r="O93" t="n">
+        <v>0.1036481900452489</v>
+      </c>
+      <c r="P93" t="inlineStr">
         <is>
           <t>지구형행성</t>
         </is>
       </c>
-      <c r="O93" t="n">
+      <c r="Q93" t="n">
         <v>0.4375</v>
       </c>
-      <c r="P93" t="inlineStr">
+      <c r="R93" t="inlineStr">
         <is>
           <t>거대행성</t>
         </is>
       </c>
-      <c r="Q93" t="n">
+      <c r="S93" t="n">
         <v>0.3125</v>
       </c>
-      <c r="R93" t="inlineStr">
+      <c r="T93" t="inlineStr">
         <is>
           <t>케플러법칙</t>
         </is>
       </c>
-      <c r="S93" t="n">
+      <c r="U93" t="n">
         <v>0.25</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0.1323529411764706</v>
       </c>
     </row>
     <row r="94">
@@ -7727,41 +8555,39 @@
       <c r="G94" t="n">
         <v>0.02298850574712644</v>
       </c>
-      <c r="H94" t="inlineStr">
+      <c r="H94" t="n">
+        <v>0.00489432703003337</v>
+      </c>
+      <c r="I94" t="inlineStr">
         <is>
           <t>케플러법칙</t>
         </is>
       </c>
-      <c r="I94" t="n">
+      <c r="J94" t="n">
         <v>0.1777777777777778</v>
       </c>
-      <c r="J94" t="inlineStr">
+      <c r="K94" t="inlineStr">
         <is>
           <t>케플러1법칙</t>
         </is>
       </c>
-      <c r="K94" t="n">
+      <c r="L94" t="n">
         <v>0.1422222222222222</v>
       </c>
-      <c r="L94" t="inlineStr">
+      <c r="M94" t="inlineStr">
         <is>
           <t>케플러2법칙</t>
         </is>
       </c>
-      <c r="M94" t="n">
+      <c r="N94" t="n">
         <v>0.1254901960784314</v>
       </c>
-      <c r="N94" t="inlineStr">
+      <c r="O94" t="n">
+        <v>0.06887383710164095</v>
+      </c>
+      <c r="P94" t="inlineStr">
         <is>
           <t>거대행성</t>
-        </is>
-      </c>
-      <c r="O94" t="n">
-        <v>0.2333333333333333</v>
-      </c>
-      <c r="P94" t="inlineStr">
-        <is>
-          <t>케플러법칙</t>
         </is>
       </c>
       <c r="Q94" t="n">
@@ -7769,18 +8595,29 @@
       </c>
       <c r="R94" t="inlineStr">
         <is>
+          <t>케플러법칙</t>
+        </is>
+      </c>
+      <c r="S94" t="n">
+        <v>0.2333333333333333</v>
+      </c>
+      <c r="T94" t="inlineStr">
+        <is>
           <t>소천체</t>
         </is>
       </c>
-      <c r="S94" t="n">
+      <c r="U94" t="n">
         <v>0.2</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0.08817204301075272</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="N1:S1"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="P1:V1"/>
+    <mergeCell ref="I1:O1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
